--- a/dashboard/data/static/translation.xlsx
+++ b/dashboard/data/static/translation.xlsx
@@ -588,7 +588,7 @@
         <v>消费</v>
       </c>
       <c r="D11" t="str">
-        <v>批发零售</v>
+        <v>经销商</v>
       </c>
       <c r="E11" t="str">
         <v>电子产品经销商</v>
@@ -605,7 +605,7 @@
         <v>消费</v>
       </c>
       <c r="D12" t="str">
-        <v>批发零售</v>
+        <v>经销商</v>
       </c>
       <c r="E12" t="str">
         <v>批发经销商</v>
@@ -622,7 +622,7 @@
         <v>消费</v>
       </c>
       <c r="D13" t="str">
-        <v>批发零售</v>
+        <v>经销商</v>
       </c>
       <c r="E13" t="str">
         <v>食品经销商</v>
@@ -639,7 +639,7 @@
         <v>消费</v>
       </c>
       <c r="D14" t="str">
-        <v>批发零售</v>
+        <v>经销商</v>
       </c>
       <c r="E14" t="str">
         <v>医疗经销商</v>
@@ -1506,7 +1506,7 @@
         <v>消费</v>
       </c>
       <c r="D65" t="str">
-        <v>批发零售</v>
+        <v>零售</v>
       </c>
       <c r="E65" t="str">
         <v>百货商店</v>
@@ -1523,7 +1523,7 @@
         <v>消费</v>
       </c>
       <c r="D66" t="str">
-        <v>批发零售</v>
+        <v>零售</v>
       </c>
       <c r="E66" t="str">
         <v>电子电器商店</v>
@@ -1540,7 +1540,7 @@
         <v>消费</v>
       </c>
       <c r="D67" t="str">
-        <v>批发零售</v>
+        <v>零售</v>
       </c>
       <c r="E67" t="str">
         <v>服装鞋类</v>
@@ -1557,7 +1557,7 @@
         <v>消费</v>
       </c>
       <c r="D68" t="str">
-        <v>批发零售</v>
+        <v>零售</v>
       </c>
       <c r="E68" t="str">
         <v>家居装修</v>
@@ -1574,7 +1574,7 @@
         <v>消费</v>
       </c>
       <c r="D69" t="str">
-        <v>批发零售</v>
+        <v>零售</v>
       </c>
       <c r="E69" t="str">
         <v>连锁药店</v>
@@ -1591,7 +1591,7 @@
         <v>消费</v>
       </c>
       <c r="D70" t="str">
-        <v>批发零售</v>
+        <v>零售</v>
       </c>
       <c r="E70" t="str">
         <v>综合零售</v>
@@ -1608,7 +1608,7 @@
         <v>消费</v>
       </c>
       <c r="D71" t="str">
-        <v>批发零售</v>
+        <v>零售</v>
       </c>
       <c r="E71" t="str">
         <v>食品零售</v>
@@ -1625,7 +1625,7 @@
         <v>消费</v>
       </c>
       <c r="D72" t="str">
-        <v>批发零售</v>
+        <v>零售</v>
       </c>
       <c r="E72" t="str">
         <v>网络零售</v>
@@ -1642,7 +1642,7 @@
         <v>消费</v>
       </c>
       <c r="D73" t="str">
-        <v>批发零售</v>
+        <v>零售</v>
       </c>
       <c r="E73" t="str">
         <v>折扣店</v>
@@ -1659,7 +1659,7 @@
         <v>消费</v>
       </c>
       <c r="D74" t="str">
-        <v>批发零售</v>
+        <v>零售</v>
       </c>
       <c r="E74" t="str">
         <v>专卖店</v>
@@ -1730,7 +1730,7 @@
         <v>化工</v>
       </c>
       <c r="E78" t="str">
-        <v>化学品：农业</v>
+        <v>农用化学品</v>
       </c>
     </row>
     <row r="79">
@@ -1747,7 +1747,7 @@
         <v>化工</v>
       </c>
       <c r="E79" t="str">
-        <v>化学品：特种</v>
+        <v>特殊化学品</v>
       </c>
     </row>
     <row r="80">
@@ -1764,7 +1764,7 @@
         <v>化工</v>
       </c>
       <c r="E80" t="str">
-        <v>化学品：主要</v>
+        <v>化学原料</v>
       </c>
     </row>
     <row r="81">
@@ -1914,7 +1914,7 @@
         <v>消费</v>
       </c>
       <c r="D89" t="str">
-        <v>日常消费</v>
+        <v>食品饮料</v>
       </c>
       <c r="E89" t="str">
         <v>酒</v>
@@ -1931,10 +1931,10 @@
         <v>消费</v>
       </c>
       <c r="D90" t="str">
-        <v>日常消费</v>
+        <v>食品饮料</v>
       </c>
       <c r="E90" t="str">
-        <v>食品：肉/鱼/乳制品</v>
+        <v>肉蛋奶</v>
       </c>
     </row>
     <row r="91">
@@ -1948,10 +1948,10 @@
         <v>消费</v>
       </c>
       <c r="D91" t="str">
-        <v>日常消费</v>
+        <v>食品饮料</v>
       </c>
       <c r="E91" t="str">
-        <v>食品：特产/糖果</v>
+        <v>零食</v>
       </c>
     </row>
     <row r="92">
@@ -1965,10 +1965,10 @@
         <v>消费</v>
       </c>
       <c r="D92" t="str">
-        <v>日常消费</v>
+        <v>食品饮料</v>
       </c>
       <c r="E92" t="str">
-        <v>食品：综合</v>
+        <v>主食</v>
       </c>
     </row>
     <row r="93">
@@ -2016,7 +2016,7 @@
         <v>消费</v>
       </c>
       <c r="D95" t="str">
-        <v>日常消费</v>
+        <v>食品饮料</v>
       </c>
       <c r="E95" t="str">
         <v>饮料</v>
@@ -2489,7 +2489,7 @@
         <v>Marine Shipping</v>
       </c>
       <c r="C123" t="str">
-        <v>消费</v>
+        <v>制造业</v>
       </c>
       <c r="D123" t="str">
         <v>运输</v>
@@ -2506,7 +2506,7 @@
         <v>Airlines</v>
       </c>
       <c r="C124" t="str">
-        <v>消费</v>
+        <v>制造业</v>
       </c>
       <c r="D124" t="str">
         <v>运输</v>
@@ -2523,7 +2523,7 @@
         <v>Trucking</v>
       </c>
       <c r="C125" t="str">
-        <v>消费</v>
+        <v>制造业</v>
       </c>
       <c r="D125" t="str">
         <v>运输</v>
@@ -2540,7 +2540,7 @@
         <v>Other Transportation</v>
       </c>
       <c r="C126" t="str">
-        <v>消费</v>
+        <v>制造业</v>
       </c>
       <c r="D126" t="str">
         <v>运输</v>
@@ -2557,7 +2557,7 @@
         <v>Railroads</v>
       </c>
       <c r="C127" t="str">
-        <v>消费</v>
+        <v>制造业</v>
       </c>
       <c r="D127" t="str">
         <v>运输</v>
@@ -2574,7 +2574,7 @@
         <v>Air Freight/Couriers</v>
       </c>
       <c r="C128" t="str">
-        <v>消费</v>
+        <v>制造业</v>
       </c>
       <c r="D128" t="str">
         <v>运输</v>

--- a/dashboard/data/static/translation.xlsx
+++ b/dashboard/data/static/translation.xlsx
@@ -2138,7 +2138,7 @@
         <v>机械</v>
       </c>
       <c r="E102" t="str">
-        <v>电气产品</v>
+        <v>电力设备</v>
       </c>
     </row>
     <row r="103">
@@ -2172,7 +2172,7 @@
         <v>机械</v>
       </c>
       <c r="E104" t="str">
-        <v>机械设加工备</v>
+        <v>机械加工设备</v>
       </c>
     </row>
     <row r="105">

--- a/dashboard/data/static/translation.xlsx
+++ b/dashboard/data/static/translation.xlsx
@@ -489,7 +489,7 @@
         <v>电子</v>
       </c>
       <c r="E5" t="str">
-        <v>电子设备仪器</v>
+        <v>仪器设备</v>
       </c>
     </row>
     <row r="6">
@@ -1622,10 +1622,10 @@
         <v>Internet Retail</v>
       </c>
       <c r="C72" t="str">
-        <v>消费</v>
+        <v>科技</v>
       </c>
       <c r="D72" t="str">
-        <v>零售</v>
+        <v>IT技术</v>
       </c>
       <c r="E72" t="str">
         <v>网络零售</v>

--- a/dashboard/data/static/translation.xlsx
+++ b/dashboard/data/static/translation.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet name="industry_trans" sheetId="1" r:id="rId1"/>
     <sheet name="market_trans" sheetId="2" r:id="rId2"/>
+    <sheet name="stock_names" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -1016,7 +1017,7 @@
         <v>医疗</v>
       </c>
       <c r="E36" t="str">
-        <v>专科医疗</v>
+        <v>医疗器械</v>
       </c>
     </row>
     <row r="37">
@@ -3157,4 +3158,7509 @@
     <ignoredError numberStoredAsText="1" sqref="A1:B63"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C681"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>证券代码</v>
+      </c>
+      <c r="B1" t="str">
+        <v>证券名称</v>
+      </c>
+      <c r="C1" t="str">
+        <v>market</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>ESSITY_A</v>
+      </c>
+      <c r="B2" t="str">
+        <v>爱适瑞</v>
+      </c>
+      <c r="C2" t="str">
+        <v>sweden</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>8279</v>
+      </c>
+      <c r="B3" t="str">
+        <v>八百幸</v>
+      </c>
+      <c r="C3" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2651</v>
+      </c>
+      <c r="B4" t="str">
+        <v>罗森</v>
+      </c>
+      <c r="C4" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>8233</v>
+      </c>
+      <c r="B5" t="str">
+        <v>高岛屋</v>
+      </c>
+      <c r="C5" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>3086</v>
+      </c>
+      <c r="B6" t="str">
+        <v>J. Front零售</v>
+      </c>
+      <c r="C6" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>9008</v>
+      </c>
+      <c r="B7" t="str">
+        <v>京王集团</v>
+      </c>
+      <c r="C7" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>3099</v>
+      </c>
+      <c r="B8" t="str">
+        <v>伊势丹</v>
+      </c>
+      <c r="C8" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>3197</v>
+      </c>
+      <c r="B9" t="str">
+        <v>云雀餐饮集团</v>
+      </c>
+      <c r="C9" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>2702</v>
+      </c>
+      <c r="B10" t="str">
+        <v>麦当劳日本</v>
+      </c>
+      <c r="C10" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>7550</v>
+      </c>
+      <c r="B11" t="str">
+        <v>善商控股</v>
+      </c>
+      <c r="C11" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>9602</v>
+      </c>
+      <c r="B12" t="str">
+        <v>東宝株式会社</v>
+      </c>
+      <c r="C12" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>9605</v>
+      </c>
+      <c r="B13" t="str">
+        <v>东映</v>
+      </c>
+      <c r="C13" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>4816</v>
+      </c>
+      <c r="B14" t="str">
+        <v>东映动画</v>
+      </c>
+      <c r="C14" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>7951</v>
+      </c>
+      <c r="B15" t="str">
+        <v>雅马哈</v>
+      </c>
+      <c r="C15" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>9435</v>
+      </c>
+      <c r="B16" t="str">
+        <v>光通信</v>
+      </c>
+      <c r="C16" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>3038</v>
+      </c>
+      <c r="B17" t="str">
+        <v>神戶物產</v>
+      </c>
+      <c r="C17" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>4739</v>
+      </c>
+      <c r="B18" t="str">
+        <v>伊藤忠技术</v>
+      </c>
+      <c r="C18" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>2433</v>
+      </c>
+      <c r="B19" t="str">
+        <v>博报堂</v>
+      </c>
+      <c r="C19" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>2270</v>
+      </c>
+      <c r="B20" t="str">
+        <v>雪印惠乳业</v>
+      </c>
+      <c r="C20" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>2296</v>
+      </c>
+      <c r="B21" t="str">
+        <v>伊藤火腿米久控股</v>
+      </c>
+      <c r="C21" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>2809</v>
+      </c>
+      <c r="B22" t="str">
+        <v>丘比食品</v>
+      </c>
+      <c r="C22" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>2264</v>
+      </c>
+      <c r="B23" t="str">
+        <v>森永乳业</v>
+      </c>
+      <c r="C23" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>1332</v>
+      </c>
+      <c r="B24" t="str">
+        <v>日水</v>
+      </c>
+      <c r="C24" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>2206</v>
+      </c>
+      <c r="B25" t="str">
+        <v>江崎格力高</v>
+      </c>
+      <c r="C25" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>2282</v>
+      </c>
+      <c r="B26" t="str">
+        <v>日本火腿</v>
+      </c>
+      <c r="C26" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>2501</v>
+      </c>
+      <c r="B27" t="str">
+        <v>札幌啤酒</v>
+      </c>
+      <c r="C27" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>2229</v>
+      </c>
+      <c r="B28" t="str">
+        <v>卡乐比</v>
+      </c>
+      <c r="C28" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>2212</v>
+      </c>
+      <c r="B29" t="str">
+        <v>山崎面包</v>
+      </c>
+      <c r="C29" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>2875</v>
+      </c>
+      <c r="B30" t="str">
+        <v>东洋水产</v>
+      </c>
+      <c r="C30" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>2269</v>
+      </c>
+      <c r="B31" t="str">
+        <v>明治控股</v>
+      </c>
+      <c r="C31" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>1802</v>
+      </c>
+      <c r="B32" t="str">
+        <v>大林组</v>
+      </c>
+      <c r="C32" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>5901</v>
+      </c>
+      <c r="B33" t="str">
+        <v>东洋制罐</v>
+      </c>
+      <c r="C33" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>9147</v>
+      </c>
+      <c r="B34" t="str">
+        <v>日本通运</v>
+      </c>
+      <c r="C34" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>9009</v>
+      </c>
+      <c r="B35" t="str">
+        <v>京成电铁</v>
+      </c>
+      <c r="C35" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>9007</v>
+      </c>
+      <c r="B36" t="str">
+        <v>小田急电铁</v>
+      </c>
+      <c r="C36" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>9001</v>
+      </c>
+      <c r="B37" t="str">
+        <v>东武铁道</v>
+      </c>
+      <c r="C37" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>9041</v>
+      </c>
+      <c r="B38" t="str">
+        <v>近畿日本铁道</v>
+      </c>
+      <c r="C38" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>9005</v>
+      </c>
+      <c r="B39" t="str">
+        <v>东急电铁</v>
+      </c>
+      <c r="C39" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>5711</v>
+      </c>
+      <c r="B40" t="str">
+        <v>三菱材料</v>
+      </c>
+      <c r="C40" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>6305</v>
+      </c>
+      <c r="B41" t="str">
+        <v>日立建机</v>
+      </c>
+      <c r="C41" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>6479</v>
+      </c>
+      <c r="B42" t="str">
+        <v>美蓓亚三美</v>
+      </c>
+      <c r="C42" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>6504</v>
+      </c>
+      <c r="B43" t="str">
+        <v>富士电机</v>
+      </c>
+      <c r="C43" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>ELPE</v>
+      </c>
+      <c r="B44" t="str">
+        <v>希腊石油</v>
+      </c>
+      <c r="C44" t="str">
+        <v>greece</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>MAP</v>
+      </c>
+      <c r="B45" t="str">
+        <v>曼弗雷</v>
+      </c>
+      <c r="C45" t="str">
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>HELN</v>
+      </c>
+      <c r="B46" t="str">
+        <v>瑞士保险</v>
+      </c>
+      <c r="C46" t="str">
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>EDEN</v>
+      </c>
+      <c r="B47" t="str">
+        <v>艾登瑞德</v>
+      </c>
+      <c r="C47" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>CBK</v>
+      </c>
+      <c r="B48" t="str">
+        <v>德国商业银行</v>
+      </c>
+      <c r="C48" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>ETE</v>
+      </c>
+      <c r="B49" t="str">
+        <v>希腊国家银行</v>
+      </c>
+      <c r="C49" t="str">
+        <v>greece</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>SAB</v>
+      </c>
+      <c r="B50" t="str">
+        <v>萨瓦德尔银行</v>
+      </c>
+      <c r="C50" t="str">
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>SHB_A</v>
+      </c>
+      <c r="B51" t="str">
+        <v>瑞典商业银行</v>
+      </c>
+      <c r="C51" t="str">
+        <v>sweden</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>DANSKE</v>
+      </c>
+      <c r="B52" t="str">
+        <v>丹斯克银行</v>
+      </c>
+      <c r="C52" t="str">
+        <v>denmark</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>SWED_A</v>
+      </c>
+      <c r="B53" t="str">
+        <v>瑞典银行</v>
+      </c>
+      <c r="C53" t="str">
+        <v>sweden</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>BAER</v>
+      </c>
+      <c r="B54" t="str">
+        <v>宝盛集团</v>
+      </c>
+      <c r="C54" t="str">
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>VONN</v>
+      </c>
+      <c r="B55" t="str">
+        <v>冯托贝尔银行</v>
+      </c>
+      <c r="C55" t="str">
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>DWS</v>
+      </c>
+      <c r="B56" t="str">
+        <v>德意志资产管理</v>
+      </c>
+      <c r="C56" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>SIX2</v>
+      </c>
+      <c r="B57" t="str">
+        <v>SIXT租车</v>
+      </c>
+      <c r="C57" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>VTWR</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Vantage Towers</v>
+      </c>
+      <c r="C58" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>AMUN</v>
+      </c>
+      <c r="B59" t="str">
+        <v>东方汇理</v>
+      </c>
+      <c r="C59" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>PGHN</v>
+      </c>
+      <c r="B60" t="str">
+        <v>合众集团</v>
+      </c>
+      <c r="C60" t="str">
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>TMV</v>
+      </c>
+      <c r="B61" t="str">
+        <v>TeamViewer</v>
+      </c>
+      <c r="C61" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>LOGN</v>
+      </c>
+      <c r="B62" t="str">
+        <v>罗技</v>
+      </c>
+      <c r="C62" t="str">
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>2222</v>
+      </c>
+      <c r="B63" t="str">
+        <v>沙特阿美</v>
+      </c>
+      <c r="C63" t="str">
+        <v>ksa</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>MC</v>
+      </c>
+      <c r="B64" t="str">
+        <v>LVMH</v>
+      </c>
+      <c r="C64" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>NOVO_B</v>
+      </c>
+      <c r="B65" t="str">
+        <v>诺和诺德</v>
+      </c>
+      <c r="C65" t="str">
+        <v>denmark</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>NESN</v>
+      </c>
+      <c r="B66" t="str">
+        <v>雀巢</v>
+      </c>
+      <c r="C66" t="str">
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>ASML</v>
+      </c>
+      <c r="B67" t="str">
+        <v>ASML</v>
+      </c>
+      <c r="C67" t="str">
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>RO</v>
+      </c>
+      <c r="B68" t="str">
+        <v>罗氏</v>
+      </c>
+      <c r="C68" t="str">
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>OR</v>
+      </c>
+      <c r="B69" t="str">
+        <v>欧莱雅</v>
+      </c>
+      <c r="C69" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>RELIANCE</v>
+      </c>
+      <c r="B70" t="str">
+        <v>信实工业</v>
+      </c>
+      <c r="C70" t="str">
+        <v>india</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>RMS</v>
+      </c>
+      <c r="B71" t="str">
+        <v>爱马仕</v>
+      </c>
+      <c r="C71" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>NOVN</v>
+      </c>
+      <c r="B72" t="str">
+        <v>诺华</v>
+      </c>
+      <c r="C72" t="str">
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>CDI</v>
+      </c>
+      <c r="B73" t="str">
+        <v>迪奥</v>
+      </c>
+      <c r="C73" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>SAP</v>
+      </c>
+      <c r="B74" t="str">
+        <v>SAP</v>
+      </c>
+      <c r="C74" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>BHP</v>
+      </c>
+      <c r="B75" t="str">
+        <v>必和必拓</v>
+      </c>
+      <c r="C75" t="str">
+        <v>australia</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>TCS</v>
+      </c>
+      <c r="B76" t="str">
+        <v>塔塔咨询</v>
+      </c>
+      <c r="C76" t="str">
+        <v>india</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>TTE</v>
+      </c>
+      <c r="B77" t="str">
+        <v>道达尔</v>
+      </c>
+      <c r="C77" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>RY</v>
+      </c>
+      <c r="B78" t="str">
+        <v>加拿大皇家银行</v>
+      </c>
+      <c r="C78" t="str">
+        <v>canada</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>SIE</v>
+      </c>
+      <c r="B79" t="str">
+        <v>西门子</v>
+      </c>
+      <c r="C79" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>SAN</v>
+      </c>
+      <c r="B80" t="str">
+        <v>赛诺菲</v>
+      </c>
+      <c r="C80" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>ITX</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Inditex</v>
+      </c>
+      <c r="C81" t="str">
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>AIR</v>
+      </c>
+      <c r="B82" t="str">
+        <v>空客</v>
+      </c>
+      <c r="C82" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>P911</v>
+      </c>
+      <c r="B83" t="str">
+        <v>保时捷</v>
+      </c>
+      <c r="C83" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>TD</v>
+      </c>
+      <c r="B84" t="str">
+        <v>多伦多道明银行</v>
+      </c>
+      <c r="C84" t="str">
+        <v>canada</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>CBA</v>
+      </c>
+      <c r="B85" t="str">
+        <v>澳大利亚联邦银行</v>
+      </c>
+      <c r="C85" t="str">
+        <v>australia</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>HDFCBANK</v>
+      </c>
+      <c r="B86" t="str">
+        <v>HDFC银行</v>
+      </c>
+      <c r="C86" t="str">
+        <v>india</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>DTE</v>
+      </c>
+      <c r="B87" t="str">
+        <v>德国电信</v>
+      </c>
+      <c r="C87" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>SU</v>
+      </c>
+      <c r="B88" t="str">
+        <v>施耐德电气</v>
+      </c>
+      <c r="C88" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>CFR</v>
+      </c>
+      <c r="B89" t="str">
+        <v>历峰</v>
+      </c>
+      <c r="C89" t="str">
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>PRX</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Prosus</v>
+      </c>
+      <c r="C90" t="str">
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>ALV</v>
+      </c>
+      <c r="B91" t="str">
+        <v>安联保险</v>
+      </c>
+      <c r="C91" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>AI</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Air Liquide</v>
+      </c>
+      <c r="C92" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>EL</v>
+      </c>
+      <c r="B93" t="str">
+        <v>EssilorLuxottica</v>
+      </c>
+      <c r="C93" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>MBG</v>
+      </c>
+      <c r="B94" t="str">
+        <v>梅赛德斯奔驰</v>
+      </c>
+      <c r="C94" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>CSL</v>
+      </c>
+      <c r="B95" t="str">
+        <v>杰特公司</v>
+      </c>
+      <c r="C95" t="str">
+        <v>australia</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>PETR3</v>
+      </c>
+      <c r="B96" t="str">
+        <v>巴西石油</v>
+      </c>
+      <c r="C96" t="str">
+        <v>brazil</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>ICICIBANK</v>
+      </c>
+      <c r="B97" t="str">
+        <v>印度工业信贷投资银行</v>
+      </c>
+      <c r="C97" t="str">
+        <v>india</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>RACE</v>
+      </c>
+      <c r="B98" t="str">
+        <v>法拉利</v>
+      </c>
+      <c r="C98" t="str">
+        <v>italy</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>VOW</v>
+      </c>
+      <c r="B99" t="str">
+        <v>大众</v>
+      </c>
+      <c r="C99" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>BMW</v>
+      </c>
+      <c r="B100" t="str">
+        <v>BMW</v>
+      </c>
+      <c r="C100" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>BNP</v>
+      </c>
+      <c r="B101" t="str">
+        <v>法国巴黎银行</v>
+      </c>
+      <c r="C101" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>CNR</v>
+      </c>
+      <c r="B102" t="str">
+        <v>加拿大国家铁路</v>
+      </c>
+      <c r="C102" t="str">
+        <v>canada</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>1120</v>
+      </c>
+      <c r="B103" t="str">
+        <v>拉杰赫银行</v>
+      </c>
+      <c r="C103" t="str">
+        <v>ksa</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>HINDUNILVR</v>
+      </c>
+      <c r="B104" t="str">
+        <v>印度斯坦联合利华</v>
+      </c>
+      <c r="C104" t="str">
+        <v>india</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>IBE</v>
+      </c>
+      <c r="B105" t="str">
+        <v>伊比德罗拉</v>
+      </c>
+      <c r="C105" t="str">
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>BBCA</v>
+      </c>
+      <c r="B106" t="str">
+        <v>中亚银行</v>
+      </c>
+      <c r="C106" t="str">
+        <v>indonesia</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>ENB</v>
+      </c>
+      <c r="B107" t="str">
+        <v>恩桥</v>
+      </c>
+      <c r="C107" t="str">
+        <v>canada</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>MRK</v>
+      </c>
+      <c r="B108" t="str">
+        <v>默克集团</v>
+      </c>
+      <c r="C108" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>WALMEX</v>
+      </c>
+      <c r="B109" t="str">
+        <v>墨西哥沃尔玛</v>
+      </c>
+      <c r="C109" t="str">
+        <v>mexico</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>2010</v>
+      </c>
+      <c r="B110" t="str">
+        <v>沙特基础工业</v>
+      </c>
+      <c r="C110" t="str">
+        <v>ksa</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>ADNOCGAS</v>
+      </c>
+      <c r="B111" t="str">
+        <v>ADNOC Gas</v>
+      </c>
+      <c r="C111" t="str">
+        <v>uae</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>ENEL</v>
+      </c>
+      <c r="B112" t="str">
+        <v>意大利国家电力公司</v>
+      </c>
+      <c r="C112" t="str">
+        <v>italy</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>ZURN</v>
+      </c>
+      <c r="B113" t="str">
+        <v>苏黎世保险</v>
+      </c>
+      <c r="C113" t="str">
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>ABBN</v>
+      </c>
+      <c r="B114" t="str">
+        <v>ABB</v>
+      </c>
+      <c r="C114" t="str">
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>AMX/B</v>
+      </c>
+      <c r="B115" t="str">
+        <v>美洲电信</v>
+      </c>
+      <c r="C115" t="str">
+        <v>mexico</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>KER</v>
+      </c>
+      <c r="B116" t="str">
+        <v>开云(巴黎春天)</v>
+      </c>
+      <c r="C116" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>INFY</v>
+      </c>
+      <c r="B117" t="str">
+        <v>Infosys</v>
+      </c>
+      <c r="C117" t="str">
+        <v>india</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>CS</v>
+      </c>
+      <c r="B118" t="str">
+        <v>安盛保险</v>
+      </c>
+      <c r="C118" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>UBSG</v>
+      </c>
+      <c r="B119" t="str">
+        <v>瑞银集团</v>
+      </c>
+      <c r="C119" t="str">
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>DG</v>
+      </c>
+      <c r="B120" t="str">
+        <v>万喜</v>
+      </c>
+      <c r="C120" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>SAF</v>
+      </c>
+      <c r="B121" t="str">
+        <v>赛峰</v>
+      </c>
+      <c r="C121" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>SBIN</v>
+      </c>
+      <c r="B122" t="str">
+        <v>印度国家银行</v>
+      </c>
+      <c r="C122" t="str">
+        <v>india</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>CNQ</v>
+      </c>
+      <c r="B123" t="str">
+        <v>加拿大自然资源公司</v>
+      </c>
+      <c r="C123" t="str">
+        <v>canada</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>SHL</v>
+      </c>
+      <c r="B124" t="str">
+        <v>西门子医疗</v>
+      </c>
+      <c r="C124" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>SAN</v>
+      </c>
+      <c r="B125" t="str">
+        <v>西班牙国际银行</v>
+      </c>
+      <c r="C125" t="str">
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>SBER</v>
+      </c>
+      <c r="B126" t="str">
+        <v>俄罗斯联邦储蓄银行</v>
+      </c>
+      <c r="C126" t="str">
+        <v>russia</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>HEIA</v>
+      </c>
+      <c r="B127" t="str">
+        <v>喜力</v>
+      </c>
+      <c r="C127" t="str">
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>DHL</v>
+      </c>
+      <c r="B128" t="str">
+        <v>德国邮政</v>
+      </c>
+      <c r="C128" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>7010</v>
+      </c>
+      <c r="B129" t="str">
+        <v>沙特电信公司</v>
+      </c>
+      <c r="C129" t="str">
+        <v>ksa</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>DSY</v>
+      </c>
+      <c r="B130" t="str">
+        <v>达索系统</v>
+      </c>
+      <c r="C130" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>1180</v>
+      </c>
+      <c r="B131" t="str">
+        <v>沙特国家银行</v>
+      </c>
+      <c r="C131" t="str">
+        <v>ksa</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>VALE3</v>
+      </c>
+      <c r="B132" t="str">
+        <v>淡水河谷</v>
+      </c>
+      <c r="C132" t="str">
+        <v>brazil</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>TRI</v>
+      </c>
+      <c r="B133" t="str">
+        <v>汤森路透</v>
+      </c>
+      <c r="C133" t="str">
+        <v>canada</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>BNS</v>
+      </c>
+      <c r="B134" t="str">
+        <v>加拿大丰业银行</v>
+      </c>
+      <c r="C134" t="str">
+        <v>canada</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>STLAM</v>
+      </c>
+      <c r="B135" t="str">
+        <v>Stellantis</v>
+      </c>
+      <c r="C135" t="str">
+        <v>italy</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>ROSN</v>
+      </c>
+      <c r="B136" t="str">
+        <v>俄罗斯石油</v>
+      </c>
+      <c r="C136" t="str">
+        <v>russia</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>RI</v>
+      </c>
+      <c r="B137" t="str">
+        <v>保乐力加</v>
+      </c>
+      <c r="C137" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>NAB</v>
+      </c>
+      <c r="B138" t="str">
+        <v>澳洲国民银行</v>
+      </c>
+      <c r="C138" t="str">
+        <v>australia</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>BAYN</v>
+      </c>
+      <c r="B139" t="str">
+        <v>拜耳</v>
+      </c>
+      <c r="C139" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>IFX</v>
+      </c>
+      <c r="B140" t="str">
+        <v>英飞凌</v>
+      </c>
+      <c r="C140" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>BBRI</v>
+      </c>
+      <c r="B141" t="str">
+        <v>印尼人民银行</v>
+      </c>
+      <c r="C141" t="str">
+        <v>indonesia</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>ITUB3</v>
+      </c>
+      <c r="B142" t="str">
+        <v>伊塔乌联合银行</v>
+      </c>
+      <c r="C142" t="str">
+        <v>brazil</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>ADYEN</v>
+      </c>
+      <c r="B143" t="str">
+        <v>Adyen</v>
+      </c>
+      <c r="C143" t="str">
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>EAND</v>
+      </c>
+      <c r="B144" t="str">
+        <v>阿联酋电信</v>
+      </c>
+      <c r="C144" t="str">
+        <v>uae</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>INGA</v>
+      </c>
+      <c r="B145" t="str">
+        <v>ING集团</v>
+      </c>
+      <c r="C145" t="str">
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>WBC</v>
+      </c>
+      <c r="B146" t="str">
+        <v>西太平洋银行</v>
+      </c>
+      <c r="C146" t="str">
+        <v>australia</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>MUV2</v>
+      </c>
+      <c r="B147" t="str">
+        <v>慕尼黑再保险</v>
+      </c>
+      <c r="C147" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>ENI</v>
+      </c>
+      <c r="B148" t="str">
+        <v>国家碳化氢公司</v>
+      </c>
+      <c r="C148" t="str">
+        <v>italy</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>ANZ</v>
+      </c>
+      <c r="B149" t="str">
+        <v>澳新银行</v>
+      </c>
+      <c r="C149" t="str">
+        <v>australia</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>ISP</v>
+      </c>
+      <c r="B150" t="str">
+        <v>联合圣保罗银行</v>
+      </c>
+      <c r="C150" t="str">
+        <v>italy</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>NVTK</v>
+      </c>
+      <c r="B151" t="str">
+        <v>诺瓦泰克</v>
+      </c>
+      <c r="C151" t="str">
+        <v>russia</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>LICI</v>
+      </c>
+      <c r="B152" t="str">
+        <v>印度人寿</v>
+      </c>
+      <c r="C152" t="str">
+        <v>india</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>UN01</v>
+      </c>
+      <c r="B153" t="str">
+        <v>Uniper</v>
+      </c>
+      <c r="C153" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>STMPA</v>
+      </c>
+      <c r="B154" t="str">
+        <v>意法半导体</v>
+      </c>
+      <c r="C154" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>UCG</v>
+      </c>
+      <c r="B155" t="str">
+        <v>裕信银行</v>
+      </c>
+      <c r="C155" t="str">
+        <v>italy</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>FMG</v>
+      </c>
+      <c r="B156" t="str">
+        <v>福特斯克金属</v>
+      </c>
+      <c r="C156" t="str">
+        <v>australia</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>DSV</v>
+      </c>
+      <c r="B157" t="str">
+        <v>DSV</v>
+      </c>
+      <c r="C157" t="str">
+        <v>denmark</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>LONN</v>
+      </c>
+      <c r="B158" t="str">
+        <v>龙沙集团</v>
+      </c>
+      <c r="C158" t="str">
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>BAS</v>
+      </c>
+      <c r="B159" t="str">
+        <v>巴斯夫</v>
+      </c>
+      <c r="C159" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>SIKA</v>
+      </c>
+      <c r="B160" t="str">
+        <v>西卡</v>
+      </c>
+      <c r="C160" t="str">
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>GAZP</v>
+      </c>
+      <c r="B161" t="str">
+        <v>俄罗斯天然气工业</v>
+      </c>
+      <c r="C161" t="str">
+        <v>russia</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>MQG</v>
+      </c>
+      <c r="B162" t="str">
+        <v>麦格理银行</v>
+      </c>
+      <c r="C162" t="str">
+        <v>australia</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>VOLV_A</v>
+      </c>
+      <c r="B163" t="str">
+        <v>沃尔沃卡车</v>
+      </c>
+      <c r="C163" t="str">
+        <v>sweden</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>UMG</v>
+      </c>
+      <c r="B164" t="str">
+        <v>环球音乐集团</v>
+      </c>
+      <c r="C164" t="str">
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>HLAG</v>
+      </c>
+      <c r="B165" t="str">
+        <v>赫伯罗特</v>
+      </c>
+      <c r="C165" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>ALC</v>
+      </c>
+      <c r="B166" t="str">
+        <v>爱尔康</v>
+      </c>
+      <c r="C166" t="str">
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>LKOH</v>
+      </c>
+      <c r="B167" t="str">
+        <v>卢克石油</v>
+      </c>
+      <c r="C167" t="str">
+        <v>russia</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>LT</v>
+      </c>
+      <c r="B168" t="str">
+        <v>拉森图博</v>
+      </c>
+      <c r="C168" t="str">
+        <v>india</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>ENGI</v>
+      </c>
+      <c r="B169" t="str">
+        <v>Engie</v>
+      </c>
+      <c r="C169" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>ASIANPAINT</v>
+      </c>
+      <c r="B170" t="str">
+        <v>亚洲涂料</v>
+      </c>
+      <c r="C170" t="str">
+        <v>india</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>BN</v>
+      </c>
+      <c r="B171" t="str">
+        <v>达能</v>
+      </c>
+      <c r="C171" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>HOLN</v>
+      </c>
+      <c r="B172" t="str">
+        <v>霍尔希姆</v>
+      </c>
+      <c r="C172" t="str">
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>SU</v>
+      </c>
+      <c r="B173" t="str">
+        <v>森科能源</v>
+      </c>
+      <c r="C173" t="str">
+        <v>canada</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>CM</v>
+      </c>
+      <c r="B174" t="str">
+        <v>加拿大帝国商业银行</v>
+      </c>
+      <c r="C174" t="str">
+        <v>canada</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>BYAN</v>
+      </c>
+      <c r="B175" t="str">
+        <v>Bayan能源</v>
+      </c>
+      <c r="C175" t="str">
+        <v>indonesia</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>ORSTED</v>
+      </c>
+      <c r="B176" t="str">
+        <v>沃旭能源</v>
+      </c>
+      <c r="C176" t="str">
+        <v>denmark</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>KNIN</v>
+      </c>
+      <c r="B177" t="str">
+        <v>德迅</v>
+      </c>
+      <c r="C177" t="str">
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>NPN</v>
+      </c>
+      <c r="B178" t="str">
+        <v>Naspers</v>
+      </c>
+      <c r="C178" t="str">
+        <v>rsa</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>GEHC</v>
+      </c>
+      <c r="B179" t="str">
+        <v>GE医疗</v>
+      </c>
+      <c r="C179" t="str">
+        <v>colombia</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>MARUTI</v>
+      </c>
+      <c r="B180" t="str">
+        <v>马鲁蒂铃木</v>
+      </c>
+      <c r="C180" t="str">
+        <v>india</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>AXISBANK</v>
+      </c>
+      <c r="B181" t="str">
+        <v>同心银行</v>
+      </c>
+      <c r="C181" t="str">
+        <v>india</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>ACA</v>
+      </c>
+      <c r="B182" t="str">
+        <v>农业信贷银行</v>
+      </c>
+      <c r="C182" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>MFC</v>
+      </c>
+      <c r="B183" t="str">
+        <v>宏利金融</v>
+      </c>
+      <c r="C183" t="str">
+        <v>canada</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>CAP</v>
+      </c>
+      <c r="B184" t="str">
+        <v>凯捷</v>
+      </c>
+      <c r="C184" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>EOAN</v>
+      </c>
+      <c r="B185" t="str">
+        <v>E.ON</v>
+      </c>
+      <c r="C185" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>CVE</v>
+      </c>
+      <c r="B186" t="str">
+        <v>西诺沃斯能源</v>
+      </c>
+      <c r="C186" t="str">
+        <v>canada</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>AMS</v>
+      </c>
+      <c r="B187" t="str">
+        <v>Amadeus</v>
+      </c>
+      <c r="C187" t="str">
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>DB1</v>
+      </c>
+      <c r="B188" t="str">
+        <v>德意志交易所</v>
+      </c>
+      <c r="C188" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>ADS</v>
+      </c>
+      <c r="B189" t="str">
+        <v>阿迪达斯</v>
+      </c>
+      <c r="C189" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>SCMN</v>
+      </c>
+      <c r="B190" t="str">
+        <v>瑞士电信</v>
+      </c>
+      <c r="C190" t="str">
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>G</v>
+      </c>
+      <c r="B191" t="str">
+        <v>忠利保险</v>
+      </c>
+      <c r="C191" t="str">
+        <v>italy</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>AD</v>
+      </c>
+      <c r="B192" t="str">
+        <v>Ahold Delhaize</v>
+      </c>
+      <c r="C192" t="str">
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>RWE</v>
+      </c>
+      <c r="B193" t="str">
+        <v>RWE AG</v>
+      </c>
+      <c r="C193" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>BMRI</v>
+      </c>
+      <c r="B194" t="str">
+        <v>万自立银行</v>
+      </c>
+      <c r="C194" t="str">
+        <v>indonesia</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>HO</v>
+      </c>
+      <c r="B195" t="str">
+        <v>Thales</v>
+      </c>
+      <c r="C195" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>GIVN</v>
+      </c>
+      <c r="B196" t="str">
+        <v>奇华顿</v>
+      </c>
+      <c r="C196" t="str">
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>CABK</v>
+      </c>
+      <c r="B197" t="str">
+        <v>凯克萨银行</v>
+      </c>
+      <c r="C197" t="str">
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>HEN</v>
+      </c>
+      <c r="B198" t="str">
+        <v>汉高公司</v>
+      </c>
+      <c r="C198" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>MAERSK_A</v>
+      </c>
+      <c r="B199" t="str">
+        <v>马士基</v>
+      </c>
+      <c r="C199" t="str">
+        <v>denmark</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>WKL</v>
+      </c>
+      <c r="B200" t="str">
+        <v>威科集团</v>
+      </c>
+      <c r="C200" t="str">
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>KBC</v>
+      </c>
+      <c r="B201" t="str">
+        <v>联合银行</v>
+      </c>
+      <c r="C201" t="str">
+        <v>belgium</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>ORA</v>
+      </c>
+      <c r="B202" t="str">
+        <v>Orange</v>
+      </c>
+      <c r="C202" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>NESTE</v>
+      </c>
+      <c r="B203" t="str">
+        <v>纳斯特</v>
+      </c>
+      <c r="C203" t="str">
+        <v>finland</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>HEXA_B</v>
+      </c>
+      <c r="B204" t="str">
+        <v>Hexagon AB</v>
+      </c>
+      <c r="C204" t="str">
+        <v>sweden</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>DTG</v>
+      </c>
+      <c r="B205" t="str">
+        <v>戴姆勒卡车</v>
+      </c>
+      <c r="C205" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>SREN</v>
+      </c>
+      <c r="B206" t="str">
+        <v>瑞士再保险</v>
+      </c>
+      <c r="C206" t="str">
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>DNB</v>
+      </c>
+      <c r="B207" t="str">
+        <v>DNB</v>
+      </c>
+      <c r="C207" t="str">
+        <v>norway</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>DSFIR</v>
+      </c>
+      <c r="B208" t="str">
+        <v>DSM</v>
+      </c>
+      <c r="C208" t="str">
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>BEI</v>
+      </c>
+      <c r="B209" t="str">
+        <v>Beiersdorf</v>
+      </c>
+      <c r="C209" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>CLNX</v>
+      </c>
+      <c r="B210" t="str">
+        <v>Cellnex</v>
+      </c>
+      <c r="C210" t="str">
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>LISN</v>
+      </c>
+      <c r="B211" t="str">
+        <v>Lindt</v>
+      </c>
+      <c r="C211" t="str">
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>IMO</v>
+      </c>
+      <c r="B212" t="str">
+        <v>帝国石油</v>
+      </c>
+      <c r="C212" t="str">
+        <v>canada</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>HM_B</v>
+      </c>
+      <c r="B213" t="str">
+        <v>H&amp;M</v>
+      </c>
+      <c r="C213" t="str">
+        <v>sweden</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>NTGY</v>
+      </c>
+      <c r="B214" t="str">
+        <v>Naturgy</v>
+      </c>
+      <c r="C214" t="str">
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>PTT</v>
+      </c>
+      <c r="B215" t="str">
+        <v>泰国国家石油</v>
+      </c>
+      <c r="C215" t="str">
+        <v>thailand</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>VWS</v>
+      </c>
+      <c r="B216" t="str">
+        <v>维斯塔斯</v>
+      </c>
+      <c r="C216" t="str">
+        <v>denmark</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>GWO</v>
+      </c>
+      <c r="B217" t="str">
+        <v>大西部人寿</v>
+      </c>
+      <c r="C217" t="str">
+        <v>canada</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>TATAMOTORS</v>
+      </c>
+      <c r="B218" t="str">
+        <v>塔塔汽车</v>
+      </c>
+      <c r="C218" t="str">
+        <v>india</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>KNEBV</v>
+      </c>
+      <c r="B219" t="str">
+        <v>通力</v>
+      </c>
+      <c r="C219" t="str">
+        <v>finland</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>STMN</v>
+      </c>
+      <c r="B220" t="str">
+        <v>Straumann</v>
+      </c>
+      <c r="C220" t="str">
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>TLKM</v>
+      </c>
+      <c r="B221" t="str">
+        <v>印尼电信</v>
+      </c>
+      <c r="C221" t="str">
+        <v>indonesia</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>COLO_B</v>
+      </c>
+      <c r="B222" t="str">
+        <v>康乐保</v>
+      </c>
+      <c r="C222" t="str">
+        <v>denmark</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>HEIO</v>
+      </c>
+      <c r="B223" t="str">
+        <v>喜力控股</v>
+      </c>
+      <c r="C223" t="str">
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>NA</v>
+      </c>
+      <c r="B224" t="str">
+        <v>加拿大国民银行</v>
+      </c>
+      <c r="C224" t="str">
+        <v>canada</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>HNR1</v>
+      </c>
+      <c r="B225" t="str">
+        <v>汉诺威再保险</v>
+      </c>
+      <c r="C225" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>GMAB</v>
+      </c>
+      <c r="B226" t="str">
+        <v>Genmab</v>
+      </c>
+      <c r="C226" t="str">
+        <v>denmark</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>SEB_A</v>
+      </c>
+      <c r="B227" t="str">
+        <v>北欧斯安銀行</v>
+      </c>
+      <c r="C227" t="str">
+        <v>sweden</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>SCHN</v>
+      </c>
+      <c r="B228" t="str">
+        <v>迅达集团</v>
+      </c>
+      <c r="C228" t="str">
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>EQT</v>
+      </c>
+      <c r="B229" t="str">
+        <v>殷拓集团</v>
+      </c>
+      <c r="C229" t="str">
+        <v>sweden</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>AENA</v>
+      </c>
+      <c r="B230" t="str">
+        <v>AENA</v>
+      </c>
+      <c r="C230" t="str">
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>NOKIA</v>
+      </c>
+      <c r="B231" t="str">
+        <v>诺基亚</v>
+      </c>
+      <c r="C231" t="str">
+        <v>finland</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>M_M</v>
+      </c>
+      <c r="B232" t="str">
+        <v>马恒达</v>
+      </c>
+      <c r="C232" t="str">
+        <v>india</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>JSWSTEEL</v>
+      </c>
+      <c r="B233" t="str">
+        <v>JSW Steel</v>
+      </c>
+      <c r="C233" t="str">
+        <v>india</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>TEF</v>
+      </c>
+      <c r="B234" t="str">
+        <v>西班牙电信</v>
+      </c>
+      <c r="C234" t="str">
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>DIM</v>
+      </c>
+      <c r="B235" t="str">
+        <v>Sartorius</v>
+      </c>
+      <c r="C235" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>FER</v>
+      </c>
+      <c r="B236" t="str">
+        <v>法罗里奥</v>
+      </c>
+      <c r="C236" t="str">
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>ELE</v>
+      </c>
+      <c r="B237" t="str">
+        <v>Endesa</v>
+      </c>
+      <c r="C237" t="str">
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>MT</v>
+      </c>
+      <c r="B238" t="str">
+        <v>ArcelorMittal</v>
+      </c>
+      <c r="C238" t="str">
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>EPI_A</v>
+      </c>
+      <c r="B239" t="str">
+        <v>Epiroc</v>
+      </c>
+      <c r="C239" t="str">
+        <v>sweden</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>VIE</v>
+      </c>
+      <c r="B240" t="str">
+        <v>Veolia</v>
+      </c>
+      <c r="C240" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>MAYBANK</v>
+      </c>
+      <c r="B241" t="str">
+        <v>马来亚银行</v>
+      </c>
+      <c r="C241" t="str">
+        <v>malaysia</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>RCI.A</v>
+      </c>
+      <c r="B242" t="str">
+        <v>罗杰斯通讯</v>
+      </c>
+      <c r="C242" t="str">
+        <v>canada</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>CARL_A</v>
+      </c>
+      <c r="B243" t="str">
+        <v>嘉士伯</v>
+      </c>
+      <c r="C243" t="str">
+        <v>denmark</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>BPAC3</v>
+      </c>
+      <c r="B244" t="str">
+        <v>BTG Pactual</v>
+      </c>
+      <c r="C244" t="str">
+        <v>brazil</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>1060</v>
+      </c>
+      <c r="B245" t="str">
+        <v>沙特英国银行</v>
+      </c>
+      <c r="C245" t="str">
+        <v>ksa</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>SRT</v>
+      </c>
+      <c r="B246" t="str">
+        <v>Sartorius AG</v>
+      </c>
+      <c r="C246" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>ML</v>
+      </c>
+      <c r="B247" t="str">
+        <v>米其林</v>
+      </c>
+      <c r="C247" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>DBK</v>
+      </c>
+      <c r="B248" t="str">
+        <v>德意志银行</v>
+      </c>
+      <c r="C248" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>ASM</v>
+      </c>
+      <c r="B249" t="str">
+        <v>ASM</v>
+      </c>
+      <c r="C249" t="str">
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>SQM_A</v>
+      </c>
+      <c r="B250" t="str">
+        <v>智利化工矿业</v>
+      </c>
+      <c r="C250" t="str">
+        <v>chile</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>ARGX</v>
+      </c>
+      <c r="B251" t="str">
+        <v>argenx</v>
+      </c>
+      <c r="C251" t="str">
+        <v>belgium</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>PHIA</v>
+      </c>
+      <c r="B252" t="str">
+        <v>飞利浦</v>
+      </c>
+      <c r="C252" t="str">
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>VCB</v>
+      </c>
+      <c r="B253" t="str">
+        <v>越南外贸股份商业银行</v>
+      </c>
+      <c r="C253" t="str">
+        <v>vietnam</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>SM</v>
+      </c>
+      <c r="B254" t="str">
+        <v>SM集团</v>
+      </c>
+      <c r="C254" t="str">
+        <v>philippines</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>MONC</v>
+      </c>
+      <c r="B255" t="str">
+        <v>Moncler</v>
+      </c>
+      <c r="C255" t="str">
+        <v>italy</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>GLE</v>
+      </c>
+      <c r="B256" t="str">
+        <v>法国兴业银行</v>
+      </c>
+      <c r="C256" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>IQCD</v>
+      </c>
+      <c r="B257" t="str">
+        <v>卡塔尔工业</v>
+      </c>
+      <c r="C257" t="str">
+        <v>qatar</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>ADVANC</v>
+      </c>
+      <c r="B258" t="str">
+        <v>AIS通信</v>
+      </c>
+      <c r="C258" t="str">
+        <v>thailand</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>PAH3</v>
+      </c>
+      <c r="B259" t="str">
+        <v>保时捷控股</v>
+      </c>
+      <c r="C259" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>SLHN</v>
+      </c>
+      <c r="B260" t="str">
+        <v>瑞士人寿</v>
+      </c>
+      <c r="C260" t="str">
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>COALINDIA</v>
+      </c>
+      <c r="B261" t="str">
+        <v>印度煤炭</v>
+      </c>
+      <c r="C261" t="str">
+        <v>india</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>VNA</v>
+      </c>
+      <c r="B262" t="str">
+        <v>福诺菲亚</v>
+      </c>
+      <c r="C262" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>SMPH</v>
+      </c>
+      <c r="B263" t="str">
+        <v>SM Prime</v>
+      </c>
+      <c r="C263" t="str">
+        <v>philippines</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>TATASTEEL</v>
+      </c>
+      <c r="B264" t="str">
+        <v>塔塔钢铁</v>
+      </c>
+      <c r="C264" t="str">
+        <v>india</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>MG</v>
+      </c>
+      <c r="B265" t="str">
+        <v>麦格纳</v>
+      </c>
+      <c r="C265" t="str">
+        <v>canada</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>AM</v>
+      </c>
+      <c r="B266" t="str">
+        <v>达索航空</v>
+      </c>
+      <c r="C266" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>AKRBP</v>
+      </c>
+      <c r="B267" t="str">
+        <v>Aker BP</v>
+      </c>
+      <c r="C267" t="str">
+        <v>norway</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>BAJAJ_AUTO</v>
+      </c>
+      <c r="B268" t="str">
+        <v>巴贾吉汽车</v>
+      </c>
+      <c r="C268" t="str">
+        <v>india</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>SIEMENS</v>
+      </c>
+      <c r="B269" t="str">
+        <v>Siemens India</v>
+      </c>
+      <c r="C269" t="str">
+        <v>india</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>UCB</v>
+      </c>
+      <c r="B270" t="str">
+        <v>优时比</v>
+      </c>
+      <c r="C270" t="str">
+        <v>belgium</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>EMAAR</v>
+      </c>
+      <c r="B271" t="str">
+        <v>伊玛尔地产</v>
+      </c>
+      <c r="C271" t="str">
+        <v>uae</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>CPR</v>
+      </c>
+      <c r="B272" t="str">
+        <v>金巴利</v>
+      </c>
+      <c r="C272" t="str">
+        <v>italy</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>UHR</v>
+      </c>
+      <c r="B273" t="str">
+        <v>Swatch</v>
+      </c>
+      <c r="C273" t="str">
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>CON</v>
+      </c>
+      <c r="B274" t="str">
+        <v>马牌轮胎</v>
+      </c>
+      <c r="C274" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>TLX</v>
+      </c>
+      <c r="B275" t="str">
+        <v>Talanx</v>
+      </c>
+      <c r="C275" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>KPN</v>
+      </c>
+      <c r="B276" t="str">
+        <v>KPN</v>
+      </c>
+      <c r="C276" t="str">
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>TPX.A</v>
+      </c>
+      <c r="B277" t="str">
+        <v>莫尔森啤酒</v>
+      </c>
+      <c r="C277" t="str">
+        <v>canada</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>CA</v>
+      </c>
+      <c r="B278" t="str">
+        <v>家乐福</v>
+      </c>
+      <c r="C278" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>ENR</v>
+      </c>
+      <c r="B279" t="str">
+        <v>西门子能源</v>
+      </c>
+      <c r="C279" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>AKZA</v>
+      </c>
+      <c r="B280" t="str">
+        <v>AkzoNobel</v>
+      </c>
+      <c r="C280" t="str">
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>VOLCAR_B</v>
+      </c>
+      <c r="B281" t="str">
+        <v>沃尔沃</v>
+      </c>
+      <c r="C281" t="str">
+        <v>sweden</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>INDIGO</v>
+      </c>
+      <c r="B282" t="str">
+        <v>靛蓝航空</v>
+      </c>
+      <c r="C282" t="str">
+        <v>india</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>RNO</v>
+      </c>
+      <c r="B283" t="str">
+        <v>雷诺</v>
+      </c>
+      <c r="C283" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>LHA</v>
+      </c>
+      <c r="B284" t="str">
+        <v>汉莎航空</v>
+      </c>
+      <c r="C284" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>KBX</v>
+      </c>
+      <c r="B285" t="str">
+        <v>克诺尔集团</v>
+      </c>
+      <c r="C285" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>SUN</v>
+      </c>
+      <c r="B286" t="str">
+        <v>新却集团</v>
+      </c>
+      <c r="C286" t="str">
+        <v>australia</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>THYAO</v>
+      </c>
+      <c r="B287" t="str">
+        <v>土耳其航空</v>
+      </c>
+      <c r="C287" t="str">
+        <v>turkey</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>EICHERMOT</v>
+      </c>
+      <c r="B288" t="str">
+        <v>Eicher汽车</v>
+      </c>
+      <c r="C288" t="str">
+        <v>india</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>NN</v>
+      </c>
+      <c r="B289" t="str">
+        <v>NN Group</v>
+      </c>
+      <c r="C289" t="str">
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>FROTO</v>
+      </c>
+      <c r="B290" t="str">
+        <v>福特Otosan</v>
+      </c>
+      <c r="C290" t="str">
+        <v>turkey</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>8TRA</v>
+      </c>
+      <c r="B291" t="str">
+        <v>Traton</v>
+      </c>
+      <c r="C291" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>INL</v>
+      </c>
+      <c r="B292" t="str">
+        <v>Investec</v>
+      </c>
+      <c r="C292" t="str">
+        <v>rsa</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>AGN</v>
+      </c>
+      <c r="B293" t="str">
+        <v>AEGON</v>
+      </c>
+      <c r="C293" t="str">
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>VHM</v>
+      </c>
+      <c r="B294" t="str">
+        <v>Vinhomes</v>
+      </c>
+      <c r="C294" t="str">
+        <v>vietnam</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>ASRNL</v>
+      </c>
+      <c r="B295" t="str">
+        <v>ASR Nederland</v>
+      </c>
+      <c r="C295" t="str">
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>DWNI</v>
+      </c>
+      <c r="B296" t="str">
+        <v>Deutsche Wohnen</v>
+      </c>
+      <c r="C296" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>PUM</v>
+      </c>
+      <c r="B297" t="str">
+        <v>Puma</v>
+      </c>
+      <c r="C297" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>BESI</v>
+      </c>
+      <c r="B298" t="str">
+        <v>贝思半导体</v>
+      </c>
+      <c r="C298" t="str">
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>HLE</v>
+      </c>
+      <c r="B299" t="str">
+        <v>海拉公司</v>
+      </c>
+      <c r="C299" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>ZAL</v>
+      </c>
+      <c r="B300" t="str">
+        <v>Zalando</v>
+      </c>
+      <c r="C300" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>ASX</v>
+      </c>
+      <c r="B301" t="str">
+        <v>澳洲证券交易所</v>
+      </c>
+      <c r="C301" t="str">
+        <v>australia</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>HEROMOTOCO</v>
+      </c>
+      <c r="B302" t="str">
+        <v>英雄摩托车</v>
+      </c>
+      <c r="C302" t="str">
+        <v>india</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>ENX</v>
+      </c>
+      <c r="B303" t="str">
+        <v>泛欧交易所</v>
+      </c>
+      <c r="C303" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>TRENT</v>
+      </c>
+      <c r="B304" t="str">
+        <v>特伦特</v>
+      </c>
+      <c r="C304" t="str">
+        <v>india</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>QAN</v>
+      </c>
+      <c r="B305" t="str">
+        <v>澳大利亚航空</v>
+      </c>
+      <c r="C305" t="str">
+        <v>australia</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>BOSCHLTD</v>
+      </c>
+      <c r="B306" t="str">
+        <v>博世</v>
+      </c>
+      <c r="C306" t="str">
+        <v>india</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>AC</v>
+      </c>
+      <c r="B307" t="str">
+        <v>加拿大航空</v>
+      </c>
+      <c r="C307" t="str">
+        <v>canada</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>TREL_B</v>
+      </c>
+      <c r="B308" t="str">
+        <v>特瑞堡集团</v>
+      </c>
+      <c r="C308" t="str">
+        <v>sweden</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>X</v>
+      </c>
+      <c r="B309" t="str">
+        <v>TMX Group</v>
+      </c>
+      <c r="C309" t="str">
+        <v>canada</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>LTM</v>
+      </c>
+      <c r="B310" t="str">
+        <v>南美航空集团</v>
+      </c>
+      <c r="C310" t="str">
+        <v>chile</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>UNTR</v>
+      </c>
+      <c r="B311" t="str">
+        <v>United Tractors</v>
+      </c>
+      <c r="C311" t="str">
+        <v>indonesia</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>BOSS</v>
+      </c>
+      <c r="B312" t="str">
+        <v>HUGO BOSS</v>
+      </c>
+      <c r="C312" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>FR</v>
+      </c>
+      <c r="B313" t="str">
+        <v>法雷奥</v>
+      </c>
+      <c r="C313" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>PIRC</v>
+      </c>
+      <c r="B314" t="str">
+        <v>倍耐力</v>
+      </c>
+      <c r="C314" t="str">
+        <v>italy</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>TPRO</v>
+      </c>
+      <c r="B315" t="str">
+        <v>Technoprobe</v>
+      </c>
+      <c r="C315" t="str">
+        <v>italy</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>ADRO</v>
+      </c>
+      <c r="B316" t="str">
+        <v>Adaro Energy</v>
+      </c>
+      <c r="C316" t="str">
+        <v>indonesia</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>FRVIA</v>
+      </c>
+      <c r="B317" t="str">
+        <v>佛吉亚</v>
+      </c>
+      <c r="C317" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>BRE</v>
+      </c>
+      <c r="B318" t="str">
+        <v>Brembo</v>
+      </c>
+      <c r="C318" t="str">
+        <v>italy</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>AF</v>
+      </c>
+      <c r="B319" t="str">
+        <v>法国航空</v>
+      </c>
+      <c r="C319" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>HFG</v>
+      </c>
+      <c r="B320" t="str">
+        <v>HelloFresh</v>
+      </c>
+      <c r="C320" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>MELE</v>
+      </c>
+      <c r="B321" t="str">
+        <v>Melexis</v>
+      </c>
+      <c r="C321" t="str">
+        <v>belgium</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>YAL</v>
+      </c>
+      <c r="B322" t="str">
+        <v>兖矿澳大利亚</v>
+      </c>
+      <c r="C322" t="str">
+        <v>australia</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>SHA</v>
+      </c>
+      <c r="B323" t="str">
+        <v>Schaeffler</v>
+      </c>
+      <c r="C323" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>WHC</v>
+      </c>
+      <c r="B324" t="str">
+        <v>Whitehaven Coal</v>
+      </c>
+      <c r="C324" t="str">
+        <v>australia</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>ROTH</v>
+      </c>
+      <c r="B325" t="str">
+        <v>罗斯柴尔德银行</v>
+      </c>
+      <c r="C325" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>CIE</v>
+      </c>
+      <c r="B326" t="str">
+        <v>CIE汽车</v>
+      </c>
+      <c r="C326" t="str">
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>AIXA</v>
+      </c>
+      <c r="B327" t="str">
+        <v>爱思强</v>
+      </c>
+      <c r="C327" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>SQN</v>
+      </c>
+      <c r="B328" t="str">
+        <v>瑞讯银行</v>
+      </c>
+      <c r="C328" t="str">
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>VTSC</v>
+      </c>
+      <c r="B329" t="str">
+        <v>纬湃科技</v>
+      </c>
+      <c r="C329" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v>AZA</v>
+      </c>
+      <c r="B330" t="str">
+        <v>Avanza</v>
+      </c>
+      <c r="C330" t="str">
+        <v>sweden</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>AIRARABIA</v>
+      </c>
+      <c r="B331" t="str">
+        <v>阿拉伯航空</v>
+      </c>
+      <c r="C331" t="str">
+        <v>uae</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v>BUMI</v>
+      </c>
+      <c r="B332" t="str">
+        <v>布米资源</v>
+      </c>
+      <c r="C332" t="str">
+        <v>indonesia</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v>MOEX</v>
+      </c>
+      <c r="B333" t="str">
+        <v>莫斯科证券交易所</v>
+      </c>
+      <c r="C333" t="str">
+        <v>russia</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
+        <v>THULE</v>
+      </c>
+      <c r="B334" t="str">
+        <v>Thule</v>
+      </c>
+      <c r="C334" t="str">
+        <v>sweden</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
+        <v>TRI</v>
+      </c>
+      <c r="B335" t="str">
+        <v>Trigano</v>
+      </c>
+      <c r="C335" t="str">
+        <v>france</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v>IFCN</v>
+      </c>
+      <c r="B336" t="str">
+        <v>INFICON</v>
+      </c>
+      <c r="C336" t="str">
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v>NHC</v>
+      </c>
+      <c r="B337" t="str">
+        <v>New Hope Corp</v>
+      </c>
+      <c r="C337" t="str">
+        <v>australia</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="str">
+        <v>NOD</v>
+      </c>
+      <c r="B338" t="str">
+        <v>Nordic半导体</v>
+      </c>
+      <c r="C338" t="str">
+        <v>norway</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="str">
+        <v>PGSUS</v>
+      </c>
+      <c r="B339" t="str">
+        <v>飞马航空</v>
+      </c>
+      <c r="C339" t="str">
+        <v>turkey</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="str">
+        <v>WAF</v>
+      </c>
+      <c r="B340" t="str">
+        <v>Siltronic</v>
+      </c>
+      <c r="C340" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="str">
+        <v>VJC</v>
+      </c>
+      <c r="B341" t="str">
+        <v>越捷航空</v>
+      </c>
+      <c r="C341" t="str">
+        <v>vietnam</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="str">
+        <v>AFLT</v>
+      </c>
+      <c r="B342" t="str">
+        <v>俄罗斯航空</v>
+      </c>
+      <c r="C342" t="str">
+        <v>russia</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="str">
+        <v>AMS</v>
+      </c>
+      <c r="B343" t="str">
+        <v>奥地利微电子</v>
+      </c>
+      <c r="C343" t="str">
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="str">
+        <v>AIR</v>
+      </c>
+      <c r="B344" t="str">
+        <v>新西兰航空</v>
+      </c>
+      <c r="C344" t="str">
+        <v>newzealand</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="str">
+        <v>ELG</v>
+      </c>
+      <c r="B345" t="str">
+        <v>Elmos Semiconductor</v>
+      </c>
+      <c r="C345" t="str">
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="str">
+        <v>TATAINVEST</v>
+      </c>
+      <c r="B346" t="str">
+        <v>塔塔投资</v>
+      </c>
+      <c r="C346" t="str">
+        <v>india</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="str">
+        <v>IEX</v>
+      </c>
+      <c r="B347" t="str">
+        <v>印度能源交易所</v>
+      </c>
+      <c r="C347" t="str">
+        <v>india</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="str">
+        <v>TYRES</v>
+      </c>
+      <c r="B348" t="str">
+        <v>诺记轮胎</v>
+      </c>
+      <c r="C348" t="str">
+        <v>finland</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="str">
+        <v>AEGN</v>
+      </c>
+      <c r="B349" t="str">
+        <v>爱琴海航空</v>
+      </c>
+      <c r="C349" t="str">
+        <v>greece</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="str">
+        <v>BURSA</v>
+      </c>
+      <c r="B350" t="str">
+        <v>马来西亚股票交易所</v>
+      </c>
+      <c r="C350" t="str">
+        <v>malaysia</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="str">
+        <v>UMW</v>
+      </c>
+      <c r="B351" t="str">
+        <v>合顺控股</v>
+      </c>
+      <c r="C351" t="str">
+        <v>malaysia</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="str">
+        <v>NAS</v>
+      </c>
+      <c r="B352" t="str">
+        <v>挪威航空</v>
+      </c>
+      <c r="C352" t="str">
+        <v>norway</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="str">
+        <v>FIA1S</v>
+      </c>
+      <c r="B353" t="str">
+        <v>芬兰航空</v>
+      </c>
+      <c r="C353" t="str">
+        <v>finland</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="str">
+        <v>BA</v>
+      </c>
+      <c r="B354" t="str">
+        <v>曼谷航空</v>
+      </c>
+      <c r="C354" t="str">
+        <v>thailand</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="str">
+        <v>CAPITALA</v>
+      </c>
+      <c r="B355" t="str">
+        <v>亚洲航空</v>
+      </c>
+      <c r="C355" t="str">
+        <v>malaysia</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="str">
+        <v>CHR</v>
+      </c>
+      <c r="B356" t="str">
+        <v>合唱航空</v>
+      </c>
+      <c r="C356" t="str">
+        <v>canada</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="str">
+        <v>CEB</v>
+      </c>
+      <c r="B357" t="str">
+        <v>宿务太平洋航空</v>
+      </c>
+      <c r="C357" t="str">
+        <v>philippines</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="str">
+        <v>GIAA</v>
+      </c>
+      <c r="B358" t="str">
+        <v>印度尼西亚鹰航空</v>
+      </c>
+      <c r="C358" t="str">
+        <v>indonesia</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="str">
+        <v>ELAL</v>
+      </c>
+      <c r="B359" t="str">
+        <v>以色列航空</v>
+      </c>
+      <c r="C359" t="str">
+        <v>israel</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="str">
+        <v>SAS</v>
+      </c>
+      <c r="B360" t="str">
+        <v>SAS集团</v>
+      </c>
+      <c r="C360" t="str">
+        <v>sweden</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="str">
+        <v>5930</v>
+      </c>
+      <c r="B361" t="str">
+        <v>三星电子</v>
+      </c>
+      <c r="C361" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="str">
+        <v>373220</v>
+      </c>
+      <c r="B362" t="str">
+        <v>LG能源</v>
+      </c>
+      <c r="C362" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="str">
+        <v>660</v>
+      </c>
+      <c r="B363" t="str">
+        <v>SK海力士</v>
+      </c>
+      <c r="C363" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="str">
+        <v>207940</v>
+      </c>
+      <c r="B364" t="str">
+        <v>三星生物</v>
+      </c>
+      <c r="C364" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="str">
+        <v>51910</v>
+      </c>
+      <c r="B365" t="str">
+        <v>LG化学</v>
+      </c>
+      <c r="C365" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="str">
+        <v>5380</v>
+      </c>
+      <c r="B366" t="str">
+        <v>现代</v>
+      </c>
+      <c r="C366" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="str">
+        <v>6400</v>
+      </c>
+      <c r="B367" t="str">
+        <v>三星SDI</v>
+      </c>
+      <c r="C367" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="str">
+        <v>270</v>
+      </c>
+      <c r="B368" t="str">
+        <v>起亚</v>
+      </c>
+      <c r="C368" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="str">
+        <v>5490</v>
+      </c>
+      <c r="B369" t="str">
+        <v>浦项钢铁</v>
+      </c>
+      <c r="C369" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="str">
+        <v>3670</v>
+      </c>
+      <c r="B370" t="str">
+        <v>浦项化学</v>
+      </c>
+      <c r="C370" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="str">
+        <v>35420</v>
+      </c>
+      <c r="B371" t="str">
+        <v>Naver</v>
+      </c>
+      <c r="C371" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="str">
+        <v>247540</v>
+      </c>
+      <c r="B372" t="str">
+        <v>EcoPro BM</v>
+      </c>
+      <c r="C372" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="str">
+        <v>86520</v>
+      </c>
+      <c r="B373" t="str">
+        <v>EcoPro</v>
+      </c>
+      <c r="C373" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="str">
+        <v>35720</v>
+      </c>
+      <c r="B374" t="str">
+        <v>Kakao</v>
+      </c>
+      <c r="C374" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="str">
+        <v>68270</v>
+      </c>
+      <c r="B375" t="str">
+        <v>Celltrion</v>
+      </c>
+      <c r="C375" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="str">
+        <v>12330</v>
+      </c>
+      <c r="B376" t="str">
+        <v>现代摩比斯</v>
+      </c>
+      <c r="C376" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="str">
+        <v>66570</v>
+      </c>
+      <c r="B377" t="str">
+        <v>LG电子</v>
+      </c>
+      <c r="C377" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="str">
+        <v>105560</v>
+      </c>
+      <c r="B378" t="str">
+        <v>KB金融集团</v>
+      </c>
+      <c r="C378" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="str">
+        <v>55550</v>
+      </c>
+      <c r="B379" t="str">
+        <v>Shinhan金融集团</v>
+      </c>
+      <c r="C379" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="str">
+        <v>28260</v>
+      </c>
+      <c r="B380" t="str">
+        <v>三星物产</v>
+      </c>
+      <c r="C380" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="str">
+        <v>96770</v>
+      </c>
+      <c r="B381" t="str">
+        <v>SK Innovation</v>
+      </c>
+      <c r="C381" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="str">
+        <v>3550</v>
+      </c>
+      <c r="B382" t="str">
+        <v>LG集团</v>
+      </c>
+      <c r="C382" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="str">
+        <v>15760</v>
+      </c>
+      <c r="B383" t="str">
+        <v>韩国电力公社</v>
+      </c>
+      <c r="C383" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="str">
+        <v>32830</v>
+      </c>
+      <c r="B384" t="str">
+        <v>三星人寿</v>
+      </c>
+      <c r="C384" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="str">
+        <v>329180</v>
+      </c>
+      <c r="B385" t="str">
+        <v>现代重工</v>
+      </c>
+      <c r="C385" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="str">
+        <v>34020</v>
+      </c>
+      <c r="B386" t="str">
+        <v>斗山重工</v>
+      </c>
+      <c r="C386" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="str">
+        <v>323410</v>
+      </c>
+      <c r="B387" t="str">
+        <v>Kakao银行</v>
+      </c>
+      <c r="C387" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="str">
+        <v>86790</v>
+      </c>
+      <c r="B388" t="str">
+        <v>韩亚金融集团</v>
+      </c>
+      <c r="C388" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="str">
+        <v>352820</v>
+      </c>
+      <c r="B389" t="str">
+        <v>海谱</v>
+      </c>
+      <c r="C389" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="str">
+        <v>9150</v>
+      </c>
+      <c r="B390" t="str">
+        <v>三星电机</v>
+      </c>
+      <c r="C390" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="str">
+        <v>91990</v>
+      </c>
+      <c r="B391" t="str">
+        <v>Celltrion  Healthcare</v>
+      </c>
+      <c r="C391" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="str">
+        <v>810</v>
+      </c>
+      <c r="B392" t="str">
+        <v>三星火灾海上保险</v>
+      </c>
+      <c r="C392" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="str">
+        <v>42660</v>
+      </c>
+      <c r="B393" t="str">
+        <v>大宇造船</v>
+      </c>
+      <c r="C393" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="str">
+        <v>17670</v>
+      </c>
+      <c r="B394" t="str">
+        <v>SK电讯</v>
+      </c>
+      <c r="C394" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="str">
+        <v>3490</v>
+      </c>
+      <c r="B395" t="str">
+        <v>大韩航空</v>
+      </c>
+      <c r="C395" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="str">
+        <v>11200</v>
+      </c>
+      <c r="B396" t="str">
+        <v>现代HMM</v>
+      </c>
+      <c r="C396" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="str">
+        <v>18260</v>
+      </c>
+      <c r="B397" t="str">
+        <v>三星SDS</v>
+      </c>
+      <c r="C397" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="str">
+        <v>138040</v>
+      </c>
+      <c r="B398" t="str">
+        <v>Meritz金融集团</v>
+      </c>
+      <c r="C398" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="str">
+        <v>259960</v>
+      </c>
+      <c r="B399" t="str">
+        <v>krafton</v>
+      </c>
+      <c r="C399" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="str">
+        <v>316140</v>
+      </c>
+      <c r="B400" t="str">
+        <v>友利金融集团</v>
+      </c>
+      <c r="C400" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="str">
+        <v>24110</v>
+      </c>
+      <c r="B401" t="str">
+        <v>中小企业银行</v>
+      </c>
+      <c r="C401" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="str">
+        <v>34730</v>
+      </c>
+      <c r="B402" t="str">
+        <v>SK集团</v>
+      </c>
+      <c r="C402" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="str">
+        <v>47050</v>
+      </c>
+      <c r="B403" t="str">
+        <v>浦项大宇</v>
+      </c>
+      <c r="C403" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="str">
+        <v>30200</v>
+      </c>
+      <c r="B404" t="str">
+        <v>韩国电信</v>
+      </c>
+      <c r="C404" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="str">
+        <v>9830</v>
+      </c>
+      <c r="B405" t="str">
+        <v>韩华半导体</v>
+      </c>
+      <c r="C405" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="str">
+        <v>86280</v>
+      </c>
+      <c r="B406" t="str">
+        <v>现代Glovis</v>
+      </c>
+      <c r="C406" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="str">
+        <v>51900</v>
+      </c>
+      <c r="B407" t="str">
+        <v>LG生活健康</v>
+      </c>
+      <c r="C407" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="str">
+        <v>10140</v>
+      </c>
+      <c r="B408" t="str">
+        <v>三星重工</v>
+      </c>
+      <c r="C408" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="str">
+        <v>12450</v>
+      </c>
+      <c r="B409" t="str">
+        <v>韩华Aerospace</v>
+      </c>
+      <c r="C409" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="str">
+        <v>11070</v>
+      </c>
+      <c r="B410" t="str">
+        <v>LG Innotek</v>
+      </c>
+      <c r="C410" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="str">
+        <v>377300</v>
+      </c>
+      <c r="B411" t="str">
+        <v>Kakao支付</v>
+      </c>
+      <c r="C411" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="str">
+        <v>361610</v>
+      </c>
+      <c r="B412" t="str">
+        <v>SK IE Technology</v>
+      </c>
+      <c r="C412" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="str">
+        <v>402340</v>
+      </c>
+      <c r="B413" t="str">
+        <v>SK Square</v>
+      </c>
+      <c r="C413" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="str">
+        <v>11170</v>
+      </c>
+      <c r="B414" t="str">
+        <v>乐天化学</v>
+      </c>
+      <c r="C414" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="str">
+        <v>28050</v>
+      </c>
+      <c r="B415" t="str">
+        <v>三星工程</v>
+      </c>
+      <c r="C415" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="str">
+        <v>47810</v>
+      </c>
+      <c r="B416" t="str">
+        <v>韩国航空宇宙</v>
+      </c>
+      <c r="C416" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="str">
+        <v>34220</v>
+      </c>
+      <c r="B417" t="str">
+        <v>LG显示</v>
+      </c>
+      <c r="C417" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="str">
+        <v>32640</v>
+      </c>
+      <c r="B418" t="str">
+        <v>LG U+</v>
+      </c>
+      <c r="C418" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="str">
+        <v>4020</v>
+      </c>
+      <c r="B419" t="str">
+        <v>现代钢铁</v>
+      </c>
+      <c r="C419" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="str">
+        <v>267250</v>
+      </c>
+      <c r="B420" t="str">
+        <v>现代重工</v>
+      </c>
+      <c r="C420" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="str">
+        <v>720</v>
+      </c>
+      <c r="B421" t="str">
+        <v>现代建设</v>
+      </c>
+      <c r="C421" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="str">
+        <v>64350</v>
+      </c>
+      <c r="B422" t="str">
+        <v>现代乐铁</v>
+      </c>
+      <c r="C422" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="str">
+        <v>307950</v>
+      </c>
+      <c r="B423" t="str">
+        <v>现代AutoEver</v>
+      </c>
+      <c r="C423" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="str">
+        <v>10620</v>
+      </c>
+      <c r="B424" t="str">
+        <v>现代尾浦造船</v>
+      </c>
+      <c r="C424" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="str">
+        <v>272210</v>
+      </c>
+      <c r="B425" t="str">
+        <v>韩华Systems</v>
+      </c>
+      <c r="C425" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="str">
+        <v>16360</v>
+      </c>
+      <c r="B426" t="str">
+        <v>三星SECU</v>
+      </c>
+      <c r="C426" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="str">
+        <v>29780</v>
+      </c>
+      <c r="B427" t="str">
+        <v>三星信用卡</v>
+      </c>
+      <c r="C427" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="str">
+        <v>293490</v>
+      </c>
+      <c r="B428" t="str">
+        <v>Kakao游戏</v>
+      </c>
+      <c r="C428" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="str">
+        <v>267260</v>
+      </c>
+      <c r="B429" t="str">
+        <v>现代电子</v>
+      </c>
+      <c r="C429" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="str">
+        <v>20150</v>
+      </c>
+      <c r="B430" t="str">
+        <v>乐天能源</v>
+      </c>
+      <c r="C430" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="str">
+        <v>42670</v>
+      </c>
+      <c r="B431" t="str">
+        <v>现代斗山工程机械</v>
+      </c>
+      <c r="C431" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="str">
+        <v>1450</v>
+      </c>
+      <c r="B432" t="str">
+        <v>现代海上火灾保险</v>
+      </c>
+      <c r="C432" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="str">
+        <v>23530</v>
+      </c>
+      <c r="B433" t="str">
+        <v>乐天购物</v>
+      </c>
+      <c r="C433" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="str">
+        <v>88350</v>
+      </c>
+      <c r="B434" t="str">
+        <v>韩华人寿</v>
+      </c>
+      <c r="C434" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="str">
+        <v>4990</v>
+      </c>
+      <c r="B435" t="str">
+        <v>乐天</v>
+      </c>
+      <c r="C435" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="str">
+        <v>11210</v>
+      </c>
+      <c r="B436" t="str">
+        <v>现代威亚</v>
+      </c>
+      <c r="C436" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="str">
+        <v>1120</v>
+      </c>
+      <c r="B437" t="str">
+        <v>LG国际</v>
+      </c>
+      <c r="C437" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="str">
+        <v>285130</v>
+      </c>
+      <c r="B438" t="str">
+        <v>SK化学</v>
+      </c>
+      <c r="C438" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="str">
+        <v>18670</v>
+      </c>
+      <c r="B439" t="str">
+        <v>SK Gas</v>
+      </c>
+      <c r="C439" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="str">
+        <v>6120</v>
+      </c>
+      <c r="B440" t="str">
+        <v>SK Discovery</v>
+      </c>
+      <c r="C440" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="str">
+        <v>400</v>
+      </c>
+      <c r="B441" t="str">
+        <v>乐天财险</v>
+      </c>
+      <c r="C441" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="str">
+        <v>370</v>
+      </c>
+      <c r="B442" t="str">
+        <v>韩华财险</v>
+      </c>
+      <c r="C442" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="str">
+        <v>68400</v>
+      </c>
+      <c r="B443" t="str">
+        <v>SK租车</v>
+      </c>
+      <c r="C443" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="str">
+        <v>37560</v>
+      </c>
+      <c r="B444" t="str">
+        <v>LG HelloVision</v>
+      </c>
+      <c r="C444" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="str">
+        <v>260870</v>
+      </c>
+      <c r="B445" t="str">
+        <v>SK Signet</v>
+      </c>
+      <c r="C445" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="str">
+        <v>452260</v>
+      </c>
+      <c r="B446" t="str">
+        <v>韩华格乐丽雅</v>
+      </c>
+      <c r="C446" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="str">
+        <v>1360</v>
+      </c>
+      <c r="B447" t="str">
+        <v>三星制药</v>
+      </c>
+      <c r="C447" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="str">
+        <v>68290</v>
+      </c>
+      <c r="B448" t="str">
+        <v>三星出版</v>
+      </c>
+      <c r="C448" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="str">
+        <v>6660</v>
+      </c>
+      <c r="B449" t="str">
+        <v>三星环境</v>
+      </c>
+      <c r="C449" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="str">
+        <v>448740</v>
+      </c>
+      <c r="B450" t="str">
+        <v>三星SPAC VIII</v>
+      </c>
+      <c r="C450" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="str">
+        <v>377630</v>
+      </c>
+      <c r="B451" t="str">
+        <v>三星SPAC IV</v>
+      </c>
+      <c r="C451" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="str">
+        <v>380320</v>
+      </c>
+      <c r="B452" t="str">
+        <v>三星MUST SPAC V</v>
+      </c>
+      <c r="C452" t="str">
+        <v>korea</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="str">
+        <v>AAX</v>
+      </c>
+      <c r="B453" t="str">
+        <v>AirAsia X</v>
+      </c>
+      <c r="C453" t="str">
+        <v>malaysia</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="str">
+        <v>NORSE</v>
+      </c>
+      <c r="B454" t="str">
+        <v>北欧大西洋航空</v>
+      </c>
+      <c r="C454" t="str">
+        <v>norway</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="str">
+        <v>CMPP</v>
+      </c>
+      <c r="B455" t="str">
+        <v>印尼亚洲航空</v>
+      </c>
+      <c r="C455" t="str">
+        <v>indonesia</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="str">
+        <v>7203</v>
+      </c>
+      <c r="B456" t="str">
+        <v>丰田</v>
+      </c>
+      <c r="C456" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="str">
+        <v>6861</v>
+      </c>
+      <c r="B457" t="str">
+        <v>基恩士</v>
+      </c>
+      <c r="C457" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="str">
+        <v>6758</v>
+      </c>
+      <c r="B458" t="str">
+        <v>索尼</v>
+      </c>
+      <c r="C458" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="str">
+        <v>9432</v>
+      </c>
+      <c r="B459" t="str">
+        <v>日本电信电话</v>
+      </c>
+      <c r="C459" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="str">
+        <v>8306</v>
+      </c>
+      <c r="B460" t="str">
+        <v>三菱日联金融集团</v>
+      </c>
+      <c r="C460" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="str">
+        <v>9983</v>
+      </c>
+      <c r="B461" t="str">
+        <v>迅销</v>
+      </c>
+      <c r="C461" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="str">
+        <v>8058</v>
+      </c>
+      <c r="B462" t="str">
+        <v>三菱商事</v>
+      </c>
+      <c r="C462" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="str">
+        <v>9433</v>
+      </c>
+      <c r="B463" t="str">
+        <v>KDDI株式会社</v>
+      </c>
+      <c r="C463" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="str">
+        <v>8035</v>
+      </c>
+      <c r="B464" t="str">
+        <v>东京电子</v>
+      </c>
+      <c r="C464" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="str">
+        <v>4063</v>
+      </c>
+      <c r="B465" t="str">
+        <v>信越化学</v>
+      </c>
+      <c r="C465" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="str">
+        <v>4661</v>
+      </c>
+      <c r="B466" t="str">
+        <v>东方乐园</v>
+      </c>
+      <c r="C466" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="str">
+        <v>9984</v>
+      </c>
+      <c r="B467" t="str">
+        <v>软银集团</v>
+      </c>
+      <c r="C467" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="str">
+        <v>6367</v>
+      </c>
+      <c r="B468" t="str">
+        <v>大金工业</v>
+      </c>
+      <c r="C468" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="str">
+        <v>8316</v>
+      </c>
+      <c r="B469" t="str">
+        <v>三井住友金融集团</v>
+      </c>
+      <c r="C469" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="str">
+        <v>6501</v>
+      </c>
+      <c r="B470" t="str">
+        <v>日立</v>
+      </c>
+      <c r="C470" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="str">
+        <v>8001</v>
+      </c>
+      <c r="B471" t="str">
+        <v>伊藤忠商事</v>
+      </c>
+      <c r="C471" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="str">
+        <v>8031</v>
+      </c>
+      <c r="B472" t="str">
+        <v>三井物产</v>
+      </c>
+      <c r="C472" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="str">
+        <v>7974</v>
+      </c>
+      <c r="B473" t="str">
+        <v>任天堂</v>
+      </c>
+      <c r="C473" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="str">
+        <v>4568</v>
+      </c>
+      <c r="B474" t="str">
+        <v>第一三共</v>
+      </c>
+      <c r="C474" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="str">
+        <v>9434</v>
+      </c>
+      <c r="B475" t="str">
+        <v>软银</v>
+      </c>
+      <c r="C475" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="str">
+        <v>7267</v>
+      </c>
+      <c r="B476" t="str">
+        <v>本田</v>
+      </c>
+      <c r="C476" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="str">
+        <v>6098</v>
+      </c>
+      <c r="B477" t="str">
+        <v>瑞可利控股</v>
+      </c>
+      <c r="C477" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="str">
+        <v>6902</v>
+      </c>
+      <c r="B478" t="str">
+        <v>电装</v>
+      </c>
+      <c r="C478" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="str">
+        <v>4502</v>
+      </c>
+      <c r="B479" t="str">
+        <v>武田药品</v>
+      </c>
+      <c r="C479" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="str">
+        <v>8766</v>
+      </c>
+      <c r="B480" t="str">
+        <v>东京海上控股</v>
+      </c>
+      <c r="C480" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="str">
+        <v>4519</v>
+      </c>
+      <c r="B481" t="str">
+        <v>中外制药</v>
+      </c>
+      <c r="C481" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="str">
+        <v>8411</v>
+      </c>
+      <c r="B482" t="str">
+        <v>瑞穗金融集团</v>
+      </c>
+      <c r="C482" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="str">
+        <v>7741</v>
+      </c>
+      <c r="B483" t="str">
+        <v>豪雅</v>
+      </c>
+      <c r="C483" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="str">
+        <v>3382</v>
+      </c>
+      <c r="B484" t="str">
+        <v>7&amp;I控股</v>
+      </c>
+      <c r="C484" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="str">
+        <v>2914</v>
+      </c>
+      <c r="B485" t="str">
+        <v>日本烟草产业</v>
+      </c>
+      <c r="C485" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="str">
+        <v>6981</v>
+      </c>
+      <c r="B486" t="str">
+        <v>村田制作所</v>
+      </c>
+      <c r="C486" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="str">
+        <v>6273</v>
+      </c>
+      <c r="B487" t="str">
+        <v>SMC公司</v>
+      </c>
+      <c r="C487" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="str">
+        <v>6954</v>
+      </c>
+      <c r="B488" t="str">
+        <v>发那科</v>
+      </c>
+      <c r="C488" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="str">
+        <v>6723</v>
+      </c>
+      <c r="B489" t="str">
+        <v>瑞萨电子</v>
+      </c>
+      <c r="C489" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="str">
+        <v>6594</v>
+      </c>
+      <c r="B490" t="str">
+        <v>尼得科</v>
+      </c>
+      <c r="C490" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="str">
+        <v>6503</v>
+      </c>
+      <c r="B491" t="str">
+        <v>三菱电机</v>
+      </c>
+      <c r="C491" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="str">
+        <v>7182</v>
+      </c>
+      <c r="B492" t="str">
+        <v>日本邮贮银行</v>
+      </c>
+      <c r="C492" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="str">
+        <v>5108</v>
+      </c>
+      <c r="B493" t="str">
+        <v>普利司通</v>
+      </c>
+      <c r="C493" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="str">
+        <v>8002</v>
+      </c>
+      <c r="B494" t="str">
+        <v>丸红</v>
+      </c>
+      <c r="C494" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="str">
+        <v>6752</v>
+      </c>
+      <c r="B495" t="str">
+        <v>松下电器</v>
+      </c>
+      <c r="C495" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="str">
+        <v>7751</v>
+      </c>
+      <c r="B496" t="str">
+        <v>佳能</v>
+      </c>
+      <c r="C496" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="str">
+        <v>6857</v>
+      </c>
+      <c r="B497" t="str">
+        <v>Advantest</v>
+      </c>
+      <c r="C497" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="str">
+        <v>4503</v>
+      </c>
+      <c r="B498" t="str">
+        <v>安斯泰来制药</v>
+      </c>
+      <c r="C498" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="str">
+        <v>8053</v>
+      </c>
+      <c r="B499" t="str">
+        <v>住友商事</v>
+      </c>
+      <c r="C499" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="str">
+        <v>6178</v>
+      </c>
+      <c r="B500" t="str">
+        <v>日本邮政</v>
+      </c>
+      <c r="C500" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="str">
+        <v>6301</v>
+      </c>
+      <c r="B501" t="str">
+        <v>小松制作所</v>
+      </c>
+      <c r="C501" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="str">
+        <v>6702</v>
+      </c>
+      <c r="B502" t="str">
+        <v>富士通</v>
+      </c>
+      <c r="C502" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="str">
+        <v>9022</v>
+      </c>
+      <c r="B503" t="str">
+        <v>东海旅客铁道</v>
+      </c>
+      <c r="C503" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="str">
+        <v>4543</v>
+      </c>
+      <c r="B504" t="str">
+        <v>泰尔茂</v>
+      </c>
+      <c r="C504" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="str">
+        <v>8113</v>
+      </c>
+      <c r="B505" t="str">
+        <v>娇联</v>
+      </c>
+      <c r="C505" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="str">
+        <v>6201</v>
+      </c>
+      <c r="B506" t="str">
+        <v>丰田自动织机</v>
+      </c>
+      <c r="C506" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="str">
+        <v>9020</v>
+      </c>
+      <c r="B507" t="str">
+        <v>东日本旅客铁道</v>
+      </c>
+      <c r="C507" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="str">
+        <v>4689</v>
+      </c>
+      <c r="B508" t="str">
+        <v>Z控股</v>
+      </c>
+      <c r="C508" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="str">
+        <v>8591</v>
+      </c>
+      <c r="B509" t="str">
+        <v>欧力士</v>
+      </c>
+      <c r="C509" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="str">
+        <v>2802</v>
+      </c>
+      <c r="B510" t="str">
+        <v>味之素</v>
+      </c>
+      <c r="C510" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="str">
+        <v>4578</v>
+      </c>
+      <c r="B511" t="str">
+        <v>大冢制药</v>
+      </c>
+      <c r="C511" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="str">
+        <v>7733</v>
+      </c>
+      <c r="B512" t="str">
+        <v>奥林巴斯</v>
+      </c>
+      <c r="C512" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="str">
+        <v>4612</v>
+      </c>
+      <c r="B513" t="str">
+        <v>立邦涂料</v>
+      </c>
+      <c r="C513" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="str">
+        <v>8750</v>
+      </c>
+      <c r="B514" t="str">
+        <v>第一生命控股</v>
+      </c>
+      <c r="C514" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="str">
+        <v>2502</v>
+      </c>
+      <c r="B515" t="str">
+        <v>朝日啤酒</v>
+      </c>
+      <c r="C515" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="str">
+        <v>6971</v>
+      </c>
+      <c r="B516" t="str">
+        <v>京瓷</v>
+      </c>
+      <c r="C516" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="str">
+        <v>5401</v>
+      </c>
+      <c r="B517" t="str">
+        <v>日本制铁</v>
+      </c>
+      <c r="C517" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="str">
+        <v>9613</v>
+      </c>
+      <c r="B518" t="str">
+        <v>NTT数据</v>
+      </c>
+      <c r="C518" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="str">
+        <v>8801</v>
+      </c>
+      <c r="B519" t="str">
+        <v>三井不动产</v>
+      </c>
+      <c r="C519" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="str">
+        <v>7269</v>
+      </c>
+      <c r="B520" t="str">
+        <v>铃木</v>
+      </c>
+      <c r="C520" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="str">
+        <v>8725</v>
+      </c>
+      <c r="B521" t="str">
+        <v>MS&amp;AD保险</v>
+      </c>
+      <c r="C521" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="str">
+        <v>4911</v>
+      </c>
+      <c r="B522" t="str">
+        <v>资生堂</v>
+      </c>
+      <c r="C522" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="str">
+        <v>4452</v>
+      </c>
+      <c r="B523" t="str">
+        <v>花王</v>
+      </c>
+      <c r="C523" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="str">
+        <v>8015</v>
+      </c>
+      <c r="B524" t="str">
+        <v>丰田通商</v>
+      </c>
+      <c r="C524" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="str">
+        <v>8267</v>
+      </c>
+      <c r="B525" t="str">
+        <v>永旺株式会社</v>
+      </c>
+      <c r="C525" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="str">
+        <v>4901</v>
+      </c>
+      <c r="B526" t="str">
+        <v>富士胶片</v>
+      </c>
+      <c r="C526" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="str">
+        <v>4523</v>
+      </c>
+      <c r="B527" t="str">
+        <v>卫材</v>
+      </c>
+      <c r="C527" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="str">
+        <v>6146</v>
+      </c>
+      <c r="B528" t="str">
+        <v>DISCO</v>
+      </c>
+      <c r="C528" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="str">
+        <v>6326</v>
+      </c>
+      <c r="B529" t="str">
+        <v>久保田</v>
+      </c>
+      <c r="C529" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="str">
+        <v>1925</v>
+      </c>
+      <c r="B530" t="str">
+        <v>大和房屋工业</v>
+      </c>
+      <c r="C530" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="str">
+        <v>3659</v>
+      </c>
+      <c r="B531" t="str">
+        <v>乐线</v>
+      </c>
+      <c r="C531" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="str">
+        <v>7201</v>
+      </c>
+      <c r="B532" t="str">
+        <v>日产</v>
+      </c>
+      <c r="C532" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="str">
+        <v>8802</v>
+      </c>
+      <c r="B533" t="str">
+        <v>三菱地所</v>
+      </c>
+      <c r="C533" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="str">
+        <v>8630</v>
+      </c>
+      <c r="B534" t="str">
+        <v>损保控股</v>
+      </c>
+      <c r="C534" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="str">
+        <v>7309</v>
+      </c>
+      <c r="B535" t="str">
+        <v>禧玛诺</v>
+      </c>
+      <c r="C535" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="str">
+        <v>4307</v>
+      </c>
+      <c r="B536" t="str">
+        <v>野村综合研究所</v>
+      </c>
+      <c r="C536" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="str">
+        <v>7011</v>
+      </c>
+      <c r="B537" t="str">
+        <v>三菱重工</v>
+      </c>
+      <c r="C537" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="str">
+        <v>7832</v>
+      </c>
+      <c r="B538" t="str">
+        <v>万代南梦宫控股</v>
+      </c>
+      <c r="C538" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="str">
+        <v>2413</v>
+      </c>
+      <c r="B539" t="str">
+        <v>M3</v>
+      </c>
+      <c r="C539" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="str">
+        <v>9735</v>
+      </c>
+      <c r="B540" t="str">
+        <v>SECOM</v>
+      </c>
+      <c r="C540" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="str">
+        <v>4684</v>
+      </c>
+      <c r="B541" t="str">
+        <v>OBIC</v>
+      </c>
+      <c r="C541" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="str">
+        <v>6762</v>
+      </c>
+      <c r="B542" t="str">
+        <v>TDK</v>
+      </c>
+      <c r="C542" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="str">
+        <v>6502</v>
+      </c>
+      <c r="B543" t="str">
+        <v>东芝</v>
+      </c>
+      <c r="C543" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="str">
+        <v>9843</v>
+      </c>
+      <c r="B544" t="str">
+        <v>宜得利控股</v>
+      </c>
+      <c r="C544" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="str">
+        <v>7270</v>
+      </c>
+      <c r="B545" t="str">
+        <v>斯巴鲁</v>
+      </c>
+      <c r="C545" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="str">
+        <v>6869</v>
+      </c>
+      <c r="B546" t="str">
+        <v>希森美康</v>
+      </c>
+      <c r="C546" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="str">
+        <v>8309</v>
+      </c>
+      <c r="B547" t="str">
+        <v>三井住友信託控股</v>
+      </c>
+      <c r="C547" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="str">
+        <v>1928</v>
+      </c>
+      <c r="B548" t="str">
+        <v>积水房屋</v>
+      </c>
+      <c r="C548" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="str">
+        <v>8421</v>
+      </c>
+      <c r="B549" t="str">
+        <v>信金中央金库</v>
+      </c>
+      <c r="C549" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="str">
+        <v>6701</v>
+      </c>
+      <c r="B550" t="str">
+        <v>日本电气</v>
+      </c>
+      <c r="C550" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="str">
+        <v>4507</v>
+      </c>
+      <c r="B551" t="str">
+        <v>盐野义制药</v>
+      </c>
+      <c r="C551" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="str">
+        <v>8308</v>
+      </c>
+      <c r="B552" t="str">
+        <v>里索那控股</v>
+      </c>
+      <c r="C552" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="str">
+        <v>8830</v>
+      </c>
+      <c r="B553" t="str">
+        <v>住友不动产</v>
+      </c>
+      <c r="C553" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="str">
+        <v>2503</v>
+      </c>
+      <c r="B554" t="str">
+        <v>麒麟啤酒</v>
+      </c>
+      <c r="C554" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="str">
+        <v>9101</v>
+      </c>
+      <c r="B555" t="str">
+        <v>日本邮船</v>
+      </c>
+      <c r="C555" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="str">
+        <v>6645</v>
+      </c>
+      <c r="B556" t="str">
+        <v>欧姆龙</v>
+      </c>
+      <c r="C556" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="str">
+        <v>8604</v>
+      </c>
+      <c r="B557" t="str">
+        <v>野村控股</v>
+      </c>
+      <c r="C557" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="str">
+        <v>9202</v>
+      </c>
+      <c r="B558" t="str">
+        <v>ANA控股</v>
+      </c>
+      <c r="C558" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="str">
+        <v>6506</v>
+      </c>
+      <c r="B559" t="str">
+        <v>安川电机</v>
+      </c>
+      <c r="C559" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="str">
+        <v>2587</v>
+      </c>
+      <c r="B560" t="str">
+        <v>三得利</v>
+      </c>
+      <c r="C560" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="str">
+        <v>9503</v>
+      </c>
+      <c r="B561" t="str">
+        <v>关西电力</v>
+      </c>
+      <c r="C561" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="str">
+        <v>2801</v>
+      </c>
+      <c r="B562" t="str">
+        <v>龟甲万</v>
+      </c>
+      <c r="C562" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="str">
+        <v>6988</v>
+      </c>
+      <c r="B563" t="str">
+        <v>日东电工</v>
+      </c>
+      <c r="C563" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="str">
+        <v>9021</v>
+      </c>
+      <c r="B564" t="str">
+        <v>西日本旅客铁道</v>
+      </c>
+      <c r="C564" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="str">
+        <v>5020</v>
+      </c>
+      <c r="B565" t="str">
+        <v>ENEOS控股</v>
+      </c>
+      <c r="C565" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="str">
+        <v>2267</v>
+      </c>
+      <c r="B566" t="str">
+        <v>养乐多本社</v>
+      </c>
+      <c r="C566" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="str">
+        <v>4151</v>
+      </c>
+      <c r="B567" t="str">
+        <v>协和发酵麒麟</v>
+      </c>
+      <c r="C567" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="str">
+        <v>9143</v>
+      </c>
+      <c r="B568" t="str">
+        <v>SG控股</v>
+      </c>
+      <c r="C568" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="str">
+        <v>9531</v>
+      </c>
+      <c r="B569" t="str">
+        <v>东京瓦斯</v>
+      </c>
+      <c r="C569" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="str">
+        <v>7202</v>
+      </c>
+      <c r="B570" t="str">
+        <v>五十铃</v>
+      </c>
+      <c r="C570" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="str">
+        <v>9201</v>
+      </c>
+      <c r="B571" t="str">
+        <v>日本航空</v>
+      </c>
+      <c r="C571" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="str">
+        <v>7272</v>
+      </c>
+      <c r="B572" t="str">
+        <v>雅马哈发动机</v>
+      </c>
+      <c r="C572" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="str">
+        <v>3407</v>
+      </c>
+      <c r="B573" t="str">
+        <v>旭化成</v>
+      </c>
+      <c r="C573" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="str">
+        <v>4716</v>
+      </c>
+      <c r="B574" t="str">
+        <v>日本甲骨文</v>
+      </c>
+      <c r="C574" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="str">
+        <v>5802</v>
+      </c>
+      <c r="B575" t="str">
+        <v>住友电气</v>
+      </c>
+      <c r="C575" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="str">
+        <v>6963</v>
+      </c>
+      <c r="B576" t="str">
+        <v>罗姆株式会社</v>
+      </c>
+      <c r="C576" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="str">
+        <v>5713</v>
+      </c>
+      <c r="B577" t="str">
+        <v>住友金属矿山</v>
+      </c>
+      <c r="C577" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="str">
+        <v>4091</v>
+      </c>
+      <c r="B578" t="str">
+        <v>大阳日酸</v>
+      </c>
+      <c r="C578" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="str">
+        <v>9104</v>
+      </c>
+      <c r="B579" t="str">
+        <v>商船三井</v>
+      </c>
+      <c r="C579" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="str">
+        <v>9502</v>
+      </c>
+      <c r="B580" t="str">
+        <v>中部电力</v>
+      </c>
+      <c r="C580" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="str">
+        <v>7701</v>
+      </c>
+      <c r="B581" t="str">
+        <v>岛津制作所</v>
+      </c>
+      <c r="C581" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="str">
+        <v>4528</v>
+      </c>
+      <c r="B582" t="str">
+        <v>小野制药</v>
+      </c>
+      <c r="C582" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="str">
+        <v>3402</v>
+      </c>
+      <c r="B583" t="str">
+        <v>东丽</v>
+      </c>
+      <c r="C583" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="str">
+        <v>8697</v>
+      </c>
+      <c r="B584" t="str">
+        <v>日本交易所集团</v>
+      </c>
+      <c r="C584" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="str">
+        <v>8795</v>
+      </c>
+      <c r="B585" t="str">
+        <v>T&amp;D控股</v>
+      </c>
+      <c r="C585" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="str">
+        <v>7259</v>
+      </c>
+      <c r="B586" t="str">
+        <v>爱信精机</v>
+      </c>
+      <c r="C586" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="str">
+        <v>2897</v>
+      </c>
+      <c r="B587" t="str">
+        <v>日清食品</v>
+      </c>
+      <c r="C587" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="str">
+        <v>4188</v>
+      </c>
+      <c r="B588" t="str">
+        <v>三菱化学</v>
+      </c>
+      <c r="C588" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="str">
+        <v>9697</v>
+      </c>
+      <c r="B589" t="str">
+        <v>卡普空</v>
+      </c>
+      <c r="C589" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="str">
+        <v>5411</v>
+      </c>
+      <c r="B590" t="str">
+        <v>JFE控股</v>
+      </c>
+      <c r="C590" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="str">
+        <v>4755</v>
+      </c>
+      <c r="B591" t="str">
+        <v>乐天</v>
+      </c>
+      <c r="C591" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="str">
+        <v>4324</v>
+      </c>
+      <c r="B592" t="str">
+        <v>电通</v>
+      </c>
+      <c r="C592" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="str">
+        <v>9042</v>
+      </c>
+      <c r="B593" t="str">
+        <v>阪急阪神控股</v>
+      </c>
+      <c r="C593" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="str">
+        <v>6383</v>
+      </c>
+      <c r="B594" t="str">
+        <v>大福公司</v>
+      </c>
+      <c r="C594" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="str">
+        <v>5201</v>
+      </c>
+      <c r="B595" t="str">
+        <v>AGC股份</v>
+      </c>
+      <c r="C595" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="str">
+        <v>3088</v>
+      </c>
+      <c r="B596" t="str">
+        <v>松本清控股</v>
+      </c>
+      <c r="C596" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="str">
+        <v>4768</v>
+      </c>
+      <c r="B597" t="str">
+        <v>大塚商會</v>
+      </c>
+      <c r="C597" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="str">
+        <v>6965</v>
+      </c>
+      <c r="B598" t="str">
+        <v>滨松光子</v>
+      </c>
+      <c r="C598" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="str">
+        <v>6586</v>
+      </c>
+      <c r="B599" t="str">
+        <v>牧田</v>
+      </c>
+      <c r="C599" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="str">
+        <v>1812</v>
+      </c>
+      <c r="B600" t="str">
+        <v>鹿岛建设</v>
+      </c>
+      <c r="C600" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="str">
+        <v>9766</v>
+      </c>
+      <c r="B601" t="str">
+        <v>科乐美</v>
+      </c>
+      <c r="C601" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="str">
+        <v>8601</v>
+      </c>
+      <c r="B602" t="str">
+        <v>大和证券</v>
+      </c>
+      <c r="C602" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="str">
+        <v>9064</v>
+      </c>
+      <c r="B603" t="str">
+        <v>大和运输</v>
+      </c>
+      <c r="C603" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="str">
+        <v>4704</v>
+      </c>
+      <c r="B604" t="str">
+        <v>趋势科技</v>
+      </c>
+      <c r="C604" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="str">
+        <v>1801</v>
+      </c>
+      <c r="B605" t="str">
+        <v>大成建设</v>
+      </c>
+      <c r="C605" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="str">
+        <v>4021</v>
+      </c>
+      <c r="B606" t="str">
+        <v>日产化学</v>
+      </c>
+      <c r="C606" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="str">
+        <v>7181</v>
+      </c>
+      <c r="B607" t="str">
+        <v>简保生命保险</v>
+      </c>
+      <c r="C607" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="str">
+        <v>9107</v>
+      </c>
+      <c r="B608" t="str">
+        <v>川崎汽船</v>
+      </c>
+      <c r="C608" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="str">
+        <v>7261</v>
+      </c>
+      <c r="B609" t="str">
+        <v>马自达</v>
+      </c>
+      <c r="C609" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="str">
+        <v>7276</v>
+      </c>
+      <c r="B610" t="str">
+        <v>小糸制作所</v>
+      </c>
+      <c r="C610" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="str">
+        <v>3635</v>
+      </c>
+      <c r="B611" t="str">
+        <v>光荣特库摩</v>
+      </c>
+      <c r="C611" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="str">
+        <v>4183</v>
+      </c>
+      <c r="B612" t="str">
+        <v>三井化学</v>
+      </c>
+      <c r="C612" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="str">
+        <v>7936</v>
+      </c>
+      <c r="B613" t="str">
+        <v>亚瑟士</v>
+      </c>
+      <c r="C613" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="str">
+        <v>7211</v>
+      </c>
+      <c r="B614" t="str">
+        <v>三菱汽车</v>
+      </c>
+      <c r="C614" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="str">
+        <v>6465</v>
+      </c>
+      <c r="B615" t="str">
+        <v>星崎</v>
+      </c>
+      <c r="C615" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="str">
+        <v>7752</v>
+      </c>
+      <c r="B616" t="str">
+        <v>理光</v>
+      </c>
+      <c r="C616" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="str">
+        <v>6724</v>
+      </c>
+      <c r="B617" t="str">
+        <v>精工爱普生</v>
+      </c>
+      <c r="C617" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="str">
+        <v>3436</v>
+      </c>
+      <c r="B618" t="str">
+        <v>SUMCO</v>
+      </c>
+      <c r="C618" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="str">
+        <v>6841</v>
+      </c>
+      <c r="B619" t="str">
+        <v>横河电机</v>
+      </c>
+      <c r="C619" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="str">
+        <v>4005</v>
+      </c>
+      <c r="B620" t="str">
+        <v>住友化学</v>
+      </c>
+      <c r="C620" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="str">
+        <v>7186</v>
+      </c>
+      <c r="B621" t="str">
+        <v>康科迪亞金融</v>
+      </c>
+      <c r="C621" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="str">
+        <v>8331</v>
+      </c>
+      <c r="B622" t="str">
+        <v>千叶银行</v>
+      </c>
+      <c r="C622" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="str">
+        <v>2670</v>
+      </c>
+      <c r="B623" t="str">
+        <v>ABC-Mart</v>
+      </c>
+      <c r="C623" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="str">
+        <v>6361</v>
+      </c>
+      <c r="B624" t="str">
+        <v>荏原制作所</v>
+      </c>
+      <c r="C624" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="str">
+        <v>1803</v>
+      </c>
+      <c r="B625" t="str">
+        <v>清水建设</v>
+      </c>
+      <c r="C625" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="str">
+        <v>6806</v>
+      </c>
+      <c r="B626" t="str">
+        <v>广濑电机</v>
+      </c>
+      <c r="C626" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="str">
+        <v>6845</v>
+      </c>
+      <c r="B627" t="str">
+        <v>阿自倍爾</v>
+      </c>
+      <c r="C627" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="str">
+        <v>8354</v>
+      </c>
+      <c r="B628" t="str">
+        <v>福冈金融集团</v>
+      </c>
+      <c r="C628" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="str">
+        <v>8369</v>
+      </c>
+      <c r="B629" t="str">
+        <v>京都银行</v>
+      </c>
+      <c r="C629" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="str">
+        <v>4042</v>
+      </c>
+      <c r="B630" t="str">
+        <v>东曹株式会社</v>
+      </c>
+      <c r="C630" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="str">
+        <v>6448</v>
+      </c>
+      <c r="B631" t="str">
+        <v>兄弟工业</v>
+      </c>
+      <c r="C631" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="str">
+        <v>3861</v>
+      </c>
+      <c r="B632" t="str">
+        <v>王子制纸</v>
+      </c>
+      <c r="C632" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="str">
+        <v>6976</v>
+      </c>
+      <c r="B633" t="str">
+        <v>太阳诱电</v>
+      </c>
+      <c r="C633" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="str">
+        <v>6753</v>
+      </c>
+      <c r="B634" t="str">
+        <v>夏普</v>
+      </c>
+      <c r="C634" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="str">
+        <v>8227</v>
+      </c>
+      <c r="B635" t="str">
+        <v>島村服饰</v>
+      </c>
+      <c r="C635" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="str">
+        <v>4403</v>
+      </c>
+      <c r="B636" t="str">
+        <v>日油</v>
+      </c>
+      <c r="C636" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="str">
+        <v>5101</v>
+      </c>
+      <c r="B637" t="str">
+        <v>横滨橡胶</v>
+      </c>
+      <c r="C637" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="str">
+        <v>6113</v>
+      </c>
+      <c r="B638" t="str">
+        <v>天田</v>
+      </c>
+      <c r="C638" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="str">
+        <v>7453</v>
+      </c>
+      <c r="B639" t="str">
+        <v>无印良品</v>
+      </c>
+      <c r="C639" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="str">
+        <v>3116</v>
+      </c>
+      <c r="B640" t="str">
+        <v>丰田纺织</v>
+      </c>
+      <c r="C640" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="str">
+        <v>1963</v>
+      </c>
+      <c r="B641" t="str">
+        <v>日挥控股</v>
+      </c>
+      <c r="C641" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="str">
+        <v>6471</v>
+      </c>
+      <c r="B642" t="str">
+        <v>日本精工</v>
+      </c>
+      <c r="C642" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="str">
+        <v>3405</v>
+      </c>
+      <c r="B643" t="str">
+        <v>可乐丽</v>
+      </c>
+      <c r="C643" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="str">
+        <v>6923</v>
+      </c>
+      <c r="B644" t="str">
+        <v>斯坦利电气</v>
+      </c>
+      <c r="C644" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="str">
+        <v>6473</v>
+      </c>
+      <c r="B645" t="str">
+        <v>捷太格特</v>
+      </c>
+      <c r="C645" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="str">
+        <v>9506</v>
+      </c>
+      <c r="B646" t="str">
+        <v>东北电力</v>
+      </c>
+      <c r="C646" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="str">
+        <v>4182</v>
+      </c>
+      <c r="B647" t="str">
+        <v>三菱瓦斯化学</v>
+      </c>
+      <c r="C647" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="str">
+        <v>8088</v>
+      </c>
+      <c r="B648" t="str">
+        <v>岩谷产业</v>
+      </c>
+      <c r="C648" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="str">
+        <v>2593</v>
+      </c>
+      <c r="B649" t="str">
+        <v>伊藤园</v>
+      </c>
+      <c r="C649" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="str">
+        <v>6302</v>
+      </c>
+      <c r="B650" t="str">
+        <v>住友重工</v>
+      </c>
+      <c r="C650" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="str">
+        <v>5110</v>
+      </c>
+      <c r="B651" t="str">
+        <v>住友橡胶</v>
+      </c>
+      <c r="C651" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="str">
+        <v>9831</v>
+      </c>
+      <c r="B652" t="str">
+        <v>山田电机</v>
+      </c>
+      <c r="C652" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="str">
+        <v>7167</v>
+      </c>
+      <c r="B653" t="str">
+        <v>萌芽金融集團</v>
+      </c>
+      <c r="C653" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="str">
+        <v>7282</v>
+      </c>
+      <c r="B654" t="str">
+        <v>丰田合成</v>
+      </c>
+      <c r="C654" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="str">
+        <v>7205</v>
+      </c>
+      <c r="B655" t="str">
+        <v>日野汽车</v>
+      </c>
+      <c r="C655" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="str">
+        <v>7164</v>
+      </c>
+      <c r="B656" t="str">
+        <v>全国保証</v>
+      </c>
+      <c r="C656" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="str">
+        <v>8114</v>
+      </c>
+      <c r="B657" t="str">
+        <v>迪桑特</v>
+      </c>
+      <c r="C657" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="str">
+        <v>5105</v>
+      </c>
+      <c r="B658" t="str">
+        <v>东洋轮胎</v>
+      </c>
+      <c r="C658" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="str">
+        <v>6952</v>
+      </c>
+      <c r="B659" t="str">
+        <v>卡西欧</v>
+      </c>
+      <c r="C659" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="str">
+        <v>2579</v>
+      </c>
+      <c r="B660" t="str">
+        <v>可口可乐装瓶日本</v>
+      </c>
+      <c r="C660" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="str">
+        <v>9301</v>
+      </c>
+      <c r="B661" t="str">
+        <v>三菱物流</v>
+      </c>
+      <c r="C661" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="str">
+        <v>4902</v>
+      </c>
+      <c r="B662" t="str">
+        <v>柯尼卡美能达</v>
+      </c>
+      <c r="C662" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="str">
+        <v>5214</v>
+      </c>
+      <c r="B663" t="str">
+        <v>日本电气硝子</v>
+      </c>
+      <c r="C663" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="str">
+        <v>5991</v>
+      </c>
+      <c r="B664" t="str">
+        <v>日本发条</v>
+      </c>
+      <c r="C664" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="str">
+        <v>2531</v>
+      </c>
+      <c r="B665" t="str">
+        <v>宝生物技术</v>
+      </c>
+      <c r="C665" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="str">
+        <v>7762</v>
+      </c>
+      <c r="B666" t="str">
+        <v>西铁城</v>
+      </c>
+      <c r="C666" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="str">
+        <v>6588</v>
+      </c>
+      <c r="B667" t="str">
+        <v>東芝Tec</v>
+      </c>
+      <c r="C667" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="str">
+        <v>4114</v>
+      </c>
+      <c r="B668" t="str">
+        <v>日本触媒</v>
+      </c>
+      <c r="C668" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="str">
+        <v>7732</v>
+      </c>
+      <c r="B669" t="str">
+        <v>拓普康</v>
+      </c>
+      <c r="C669" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="str">
+        <v>4272</v>
+      </c>
+      <c r="B670" t="str">
+        <v>日本化药</v>
+      </c>
+      <c r="C670" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="str">
+        <v>6995</v>
+      </c>
+      <c r="B671" t="str">
+        <v>东海理化</v>
+      </c>
+      <c r="C671" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="str">
+        <v>3591</v>
+      </c>
+      <c r="B672" t="str">
+        <v>华歌尔</v>
+      </c>
+      <c r="C672" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="str">
+        <v>4041</v>
+      </c>
+      <c r="B673" t="str">
+        <v>日本曹达</v>
+      </c>
+      <c r="C673" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="str">
+        <v>2685</v>
+      </c>
+      <c r="B674" t="str">
+        <v>得荣公司</v>
+      </c>
+      <c r="C674" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="str">
+        <v>5192</v>
+      </c>
+      <c r="B675" t="str">
+        <v>三星皮帶</v>
+      </c>
+      <c r="C675" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="str">
+        <v>9509</v>
+      </c>
+      <c r="B676" t="str">
+        <v>北海道电力</v>
+      </c>
+      <c r="C676" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="str">
+        <v>7545</v>
+      </c>
+      <c r="B677" t="str">
+        <v>西松屋</v>
+      </c>
+      <c r="C677" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="str">
+        <v>8022</v>
+      </c>
+      <c r="B678" t="str">
+        <v>美津浓</v>
+      </c>
+      <c r="C678" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="str">
+        <v>9204</v>
+      </c>
+      <c r="B679" t="str">
+        <v>天马航空</v>
+      </c>
+      <c r="C679" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="str">
+        <v>7287</v>
+      </c>
+      <c r="B680" t="str">
+        <v>日本精机</v>
+      </c>
+      <c r="C680" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="str">
+        <v>9206</v>
+      </c>
+      <c r="B681" t="str">
+        <v>星悦航空</v>
+      </c>
+      <c r="C681" t="str">
+        <v>japan</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C681"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/dashboard/data/static/translation.xlsx
+++ b/dashboard/data/static/translation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="industry_trans"/>
@@ -4320,13 +4320,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -4358,16 +4358,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4682,15 +4679,15 @@
   </sheetPr>
   <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -6936,8 +6933,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -7456,16 +7453,16 @@
   </sheetPr>
   <dimension ref="A1:C688"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7476,7 +7473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3">
         <v>42700</v>
       </c>
@@ -7487,7 +7484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3">
         <v>7739</v>
       </c>
@@ -7498,7 +7495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3">
         <v>6707</v>
       </c>
@@ -7509,7 +7506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3">
         <v>7731</v>
       </c>
@@ -7520,7 +7517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -7531,7 +7528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -7542,7 +7539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -7553,7 +7550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -7564,8 +7561,8 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
-      <c r="A10" s="4">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="3">
         <v>8279</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -7575,8 +7572,8 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="4">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="3">
         <v>2651</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -7587,7 +7584,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>8233</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -7598,7 +7595,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>3086</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -7609,7 +7606,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>9008</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -7620,7 +7617,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>3099</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -7631,7 +7628,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>3197</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -7642,7 +7639,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>2702</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -7653,7 +7650,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>7550</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -7664,7 +7661,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>9602</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -7675,7 +7672,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>9605</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -7686,7 +7683,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>4816</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -7697,7 +7694,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>7951</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -7708,7 +7705,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>9435</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -7719,7 +7716,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>3038</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -7730,7 +7727,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>4739</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -7741,7 +7738,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>2433</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -7752,7 +7749,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>2270</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -7763,7 +7760,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>2296</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -7774,7 +7771,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>2809</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -7785,7 +7782,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>2264</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -7796,7 +7793,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>1332</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -7807,7 +7804,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>2206</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -7818,7 +7815,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>2282</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -7829,7 +7826,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>2501</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -7840,7 +7837,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>2229</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -7851,7 +7848,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>2212</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -7862,7 +7859,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>2875</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -7873,7 +7870,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>2269</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -7884,7 +7881,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>1802</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -7895,7 +7892,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>5901</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -7906,7 +7903,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>9147</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -7917,7 +7914,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>9009</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -7928,7 +7925,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>9007</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -7939,7 +7936,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>9001</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -7950,7 +7947,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>9041</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -7961,7 +7958,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>9005</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -7972,7 +7969,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>5711</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -7983,7 +7980,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>6305</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -7994,7 +7991,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>6479</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -8005,7 +8002,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>6504</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -8225,7 +8222,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="4">
+      <c r="A70" s="3">
         <v>2222</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -8665,7 +8662,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
-      <c r="A110" s="4">
+      <c r="A110" s="3">
         <v>1120</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -8742,7 +8739,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
-      <c r="A117" s="4">
+      <c r="A117" s="3">
         <v>2010</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -8951,7 +8948,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
-      <c r="A136" s="4">
+      <c r="A136" s="3">
         <v>7010</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -8973,7 +8970,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
-      <c r="A138" s="4">
+      <c r="A138" s="3">
         <v>1180</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -10227,7 +10224,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
-      <c r="A252" s="4">
+      <c r="A252" s="3">
         <v>1060</v>
       </c>
       <c r="B252" s="2" t="s">
@@ -11503,7 +11500,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="18.75">
-      <c r="A368" s="4">
+      <c r="A368" s="3">
         <v>5930</v>
       </c>
       <c r="B368" s="2" t="s">
@@ -11514,7 +11511,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="18.75">
-      <c r="A369" s="4">
+      <c r="A369" s="3">
         <v>373220</v>
       </c>
       <c r="B369" s="2" t="s">
@@ -11525,7 +11522,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="18.75">
-      <c r="A370" s="4">
+      <c r="A370" s="3">
         <v>660</v>
       </c>
       <c r="B370" s="2" t="s">
@@ -11536,7 +11533,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="18.75">
-      <c r="A371" s="4">
+      <c r="A371" s="3">
         <v>207940</v>
       </c>
       <c r="B371" s="2" t="s">
@@ -11547,7 +11544,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="18.75">
-      <c r="A372" s="4">
+      <c r="A372" s="3">
         <v>51910</v>
       </c>
       <c r="B372" s="2" t="s">
@@ -11558,7 +11555,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="18.75">
-      <c r="A373" s="4">
+      <c r="A373" s="3">
         <v>5380</v>
       </c>
       <c r="B373" s="2" t="s">
@@ -11569,7 +11566,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="18.75">
-      <c r="A374" s="4">
+      <c r="A374" s="3">
         <v>6400</v>
       </c>
       <c r="B374" s="2" t="s">
@@ -11580,7 +11577,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="18.75">
-      <c r="A375" s="4">
+      <c r="A375" s="3">
         <v>270</v>
       </c>
       <c r="B375" s="2" t="s">
@@ -11591,7 +11588,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="18.75">
-      <c r="A376" s="4">
+      <c r="A376" s="3">
         <v>5490</v>
       </c>
       <c r="B376" s="2" t="s">
@@ -11602,7 +11599,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="18.75">
-      <c r="A377" s="4">
+      <c r="A377" s="3">
         <v>3670</v>
       </c>
       <c r="B377" s="2" t="s">
@@ -11613,7 +11610,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="18.75">
-      <c r="A378" s="4">
+      <c r="A378" s="3">
         <v>35420</v>
       </c>
       <c r="B378" s="2" t="s">
@@ -11624,7 +11621,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="18.75">
-      <c r="A379" s="4">
+      <c r="A379" s="3">
         <v>247540</v>
       </c>
       <c r="B379" s="2" t="s">
@@ -11635,7 +11632,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="18.75">
-      <c r="A380" s="4">
+      <c r="A380" s="3">
         <v>86520</v>
       </c>
       <c r="B380" s="2" t="s">
@@ -11646,7 +11643,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="18.75">
-      <c r="A381" s="4">
+      <c r="A381" s="3">
         <v>35720</v>
       </c>
       <c r="B381" s="2" t="s">
@@ -11657,7 +11654,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="18.75">
-      <c r="A382" s="4">
+      <c r="A382" s="3">
         <v>68270</v>
       </c>
       <c r="B382" s="2" t="s">
@@ -11668,7 +11665,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="18.75">
-      <c r="A383" s="4">
+      <c r="A383" s="3">
         <v>12330</v>
       </c>
       <c r="B383" s="2" t="s">
@@ -11679,7 +11676,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="18.75">
-      <c r="A384" s="4">
+      <c r="A384" s="3">
         <v>66570</v>
       </c>
       <c r="B384" s="2" t="s">
@@ -11690,7 +11687,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="18.75">
-      <c r="A385" s="4">
+      <c r="A385" s="3">
         <v>105560</v>
       </c>
       <c r="B385" s="2" t="s">
@@ -11701,7 +11698,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="18.75">
-      <c r="A386" s="4">
+      <c r="A386" s="3">
         <v>55550</v>
       </c>
       <c r="B386" s="2" t="s">
@@ -11712,7 +11709,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="18.75">
-      <c r="A387" s="4">
+      <c r="A387" s="3">
         <v>28260</v>
       </c>
       <c r="B387" s="2" t="s">
@@ -11723,7 +11720,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="18.75">
-      <c r="A388" s="4">
+      <c r="A388" s="3">
         <v>96770</v>
       </c>
       <c r="B388" s="2" t="s">
@@ -11734,7 +11731,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="18.75">
-      <c r="A389" s="4">
+      <c r="A389" s="3">
         <v>3550</v>
       </c>
       <c r="B389" s="2" t="s">
@@ -11745,7 +11742,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="18.75">
-      <c r="A390" s="4">
+      <c r="A390" s="3">
         <v>15760</v>
       </c>
       <c r="B390" s="2" t="s">
@@ -11756,7 +11753,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="18.75">
-      <c r="A391" s="4">
+      <c r="A391" s="3">
         <v>32830</v>
       </c>
       <c r="B391" s="2" t="s">
@@ -11767,7 +11764,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="18.75">
-      <c r="A392" s="4">
+      <c r="A392" s="3">
         <v>329180</v>
       </c>
       <c r="B392" s="2" t="s">
@@ -11778,7 +11775,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="18.75">
-      <c r="A393" s="4">
+      <c r="A393" s="3">
         <v>34020</v>
       </c>
       <c r="B393" s="2" t="s">
@@ -11789,7 +11786,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="18.75">
-      <c r="A394" s="4">
+      <c r="A394" s="3">
         <v>323410</v>
       </c>
       <c r="B394" s="2" t="s">
@@ -11800,7 +11797,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="18.75">
-      <c r="A395" s="4">
+      <c r="A395" s="3">
         <v>86790</v>
       </c>
       <c r="B395" s="2" t="s">
@@ -11811,7 +11808,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="18.75">
-      <c r="A396" s="4">
+      <c r="A396" s="3">
         <v>352820</v>
       </c>
       <c r="B396" s="2" t="s">
@@ -11822,7 +11819,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="18.75">
-      <c r="A397" s="4">
+      <c r="A397" s="3">
         <v>9150</v>
       </c>
       <c r="B397" s="2" t="s">
@@ -11833,7 +11830,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="18.75">
-      <c r="A398" s="4">
+      <c r="A398" s="3">
         <v>91990</v>
       </c>
       <c r="B398" s="2" t="s">
@@ -11844,7 +11841,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="18.75">
-      <c r="A399" s="4">
+      <c r="A399" s="3">
         <v>810</v>
       </c>
       <c r="B399" s="2" t="s">
@@ -11855,7 +11852,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="18.75">
-      <c r="A400" s="4">
+      <c r="A400" s="3">
         <v>42660</v>
       </c>
       <c r="B400" s="2" t="s">
@@ -11866,7 +11863,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="18.75">
-      <c r="A401" s="4">
+      <c r="A401" s="3">
         <v>17670</v>
       </c>
       <c r="B401" s="2" t="s">
@@ -11877,7 +11874,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="18.75">
-      <c r="A402" s="4">
+      <c r="A402" s="3">
         <v>3490</v>
       </c>
       <c r="B402" s="2" t="s">
@@ -11888,7 +11885,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="18.75">
-      <c r="A403" s="4">
+      <c r="A403" s="3">
         <v>11200</v>
       </c>
       <c r="B403" s="2" t="s">
@@ -11899,7 +11896,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="18.75">
-      <c r="A404" s="4">
+      <c r="A404" s="3">
         <v>18260</v>
       </c>
       <c r="B404" s="2" t="s">
@@ -11910,7 +11907,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="18.75">
-      <c r="A405" s="4">
+      <c r="A405" s="3">
         <v>138040</v>
       </c>
       <c r="B405" s="2" t="s">
@@ -11921,7 +11918,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="18.75">
-      <c r="A406" s="4">
+      <c r="A406" s="3">
         <v>259960</v>
       </c>
       <c r="B406" s="2" t="s">
@@ -11932,7 +11929,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="18.75">
-      <c r="A407" s="4">
+      <c r="A407" s="3">
         <v>316140</v>
       </c>
       <c r="B407" s="2" t="s">
@@ -11943,7 +11940,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="18.75">
-      <c r="A408" s="4">
+      <c r="A408" s="3">
         <v>24110</v>
       </c>
       <c r="B408" s="2" t="s">
@@ -11954,7 +11951,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="18.75">
-      <c r="A409" s="4">
+      <c r="A409" s="3">
         <v>34730</v>
       </c>
       <c r="B409" s="2" t="s">
@@ -11965,7 +11962,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="18.75">
-      <c r="A410" s="4">
+      <c r="A410" s="3">
         <v>47050</v>
       </c>
       <c r="B410" s="2" t="s">
@@ -11976,7 +11973,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="18.75">
-      <c r="A411" s="4">
+      <c r="A411" s="3">
         <v>30200</v>
       </c>
       <c r="B411" s="2" t="s">
@@ -11987,7 +11984,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="18.75">
-      <c r="A412" s="4">
+      <c r="A412" s="3">
         <v>9830</v>
       </c>
       <c r="B412" s="2" t="s">
@@ -11998,7 +11995,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="18.75">
-      <c r="A413" s="4">
+      <c r="A413" s="3">
         <v>86280</v>
       </c>
       <c r="B413" s="2" t="s">
@@ -12009,7 +12006,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="18.75">
-      <c r="A414" s="4">
+      <c r="A414" s="3">
         <v>51900</v>
       </c>
       <c r="B414" s="2" t="s">
@@ -12020,7 +12017,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="18.75">
-      <c r="A415" s="4">
+      <c r="A415" s="3">
         <v>10140</v>
       </c>
       <c r="B415" s="2" t="s">
@@ -12031,7 +12028,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="18.75">
-      <c r="A416" s="4">
+      <c r="A416" s="3">
         <v>12450</v>
       </c>
       <c r="B416" s="2" t="s">
@@ -12042,7 +12039,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="18.75">
-      <c r="A417" s="4">
+      <c r="A417" s="3">
         <v>11070</v>
       </c>
       <c r="B417" s="2" t="s">
@@ -12053,7 +12050,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="18.75">
-      <c r="A418" s="4">
+      <c r="A418" s="3">
         <v>377300</v>
       </c>
       <c r="B418" s="2" t="s">
@@ -12064,7 +12061,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="18.75">
-      <c r="A419" s="4">
+      <c r="A419" s="3">
         <v>361610</v>
       </c>
       <c r="B419" s="2" t="s">
@@ -12075,7 +12072,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="18.75">
-      <c r="A420" s="4">
+      <c r="A420" s="3">
         <v>402340</v>
       </c>
       <c r="B420" s="2" t="s">
@@ -12086,7 +12083,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="18.75">
-      <c r="A421" s="4">
+      <c r="A421" s="3">
         <v>11170</v>
       </c>
       <c r="B421" s="2" t="s">
@@ -12097,7 +12094,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="18.75">
-      <c r="A422" s="4">
+      <c r="A422" s="3">
         <v>28050</v>
       </c>
       <c r="B422" s="2" t="s">
@@ -12108,7 +12105,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="18.75">
-      <c r="A423" s="4">
+      <c r="A423" s="3">
         <v>47810</v>
       </c>
       <c r="B423" s="2" t="s">
@@ -12119,7 +12116,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="18.75">
-      <c r="A424" s="4">
+      <c r="A424" s="3">
         <v>34220</v>
       </c>
       <c r="B424" s="2" t="s">
@@ -12130,7 +12127,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="18.75">
-      <c r="A425" s="4">
+      <c r="A425" s="3">
         <v>32640</v>
       </c>
       <c r="B425" s="2" t="s">
@@ -12141,7 +12138,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="18.75">
-      <c r="A426" s="4">
+      <c r="A426" s="3">
         <v>4020</v>
       </c>
       <c r="B426" s="2" t="s">
@@ -12152,7 +12149,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="18.75">
-      <c r="A427" s="4">
+      <c r="A427" s="3">
         <v>267250</v>
       </c>
       <c r="B427" s="2" t="s">
@@ -12163,7 +12160,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="18.75">
-      <c r="A428" s="4">
+      <c r="A428" s="3">
         <v>720</v>
       </c>
       <c r="B428" s="2" t="s">
@@ -12174,7 +12171,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="18.75">
-      <c r="A429" s="4">
+      <c r="A429" s="3">
         <v>64350</v>
       </c>
       <c r="B429" s="2" t="s">
@@ -12185,7 +12182,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="18.75">
-      <c r="A430" s="4">
+      <c r="A430" s="3">
         <v>307950</v>
       </c>
       <c r="B430" s="2" t="s">
@@ -12196,7 +12193,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="18.75">
-      <c r="A431" s="4">
+      <c r="A431" s="3">
         <v>10620</v>
       </c>
       <c r="B431" s="2" t="s">
@@ -12207,7 +12204,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="18.75">
-      <c r="A432" s="4">
+      <c r="A432" s="3">
         <v>272210</v>
       </c>
       <c r="B432" s="2" t="s">
@@ -12218,7 +12215,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="18.75">
-      <c r="A433" s="4">
+      <c r="A433" s="3">
         <v>16360</v>
       </c>
       <c r="B433" s="2" t="s">
@@ -12229,7 +12226,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="18.75">
-      <c r="A434" s="4">
+      <c r="A434" s="3">
         <v>29780</v>
       </c>
       <c r="B434" s="2" t="s">
@@ -12240,7 +12237,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="18.75">
-      <c r="A435" s="4">
+      <c r="A435" s="3">
         <v>293490</v>
       </c>
       <c r="B435" s="2" t="s">
@@ -12251,7 +12248,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="18.75">
-      <c r="A436" s="4">
+      <c r="A436" s="3">
         <v>267260</v>
       </c>
       <c r="B436" s="2" t="s">
@@ -12262,7 +12259,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="18.75">
-      <c r="A437" s="4">
+      <c r="A437" s="3">
         <v>20150</v>
       </c>
       <c r="B437" s="2" t="s">
@@ -12273,7 +12270,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="18.75">
-      <c r="A438" s="4">
+      <c r="A438" s="3">
         <v>42670</v>
       </c>
       <c r="B438" s="2" t="s">
@@ -12284,7 +12281,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="18.75">
-      <c r="A439" s="4">
+      <c r="A439" s="3">
         <v>1450</v>
       </c>
       <c r="B439" s="2" t="s">
@@ -12295,7 +12292,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="18.75">
-      <c r="A440" s="4">
+      <c r="A440" s="3">
         <v>23530</v>
       </c>
       <c r="B440" s="2" t="s">
@@ -12306,7 +12303,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="18.75">
-      <c r="A441" s="4">
+      <c r="A441" s="3">
         <v>88350</v>
       </c>
       <c r="B441" s="2" t="s">
@@ -12317,7 +12314,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="18.75">
-      <c r="A442" s="4">
+      <c r="A442" s="3">
         <v>4990</v>
       </c>
       <c r="B442" s="2" t="s">
@@ -12328,7 +12325,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="18.75">
-      <c r="A443" s="4">
+      <c r="A443" s="3">
         <v>11210</v>
       </c>
       <c r="B443" s="2" t="s">
@@ -12339,7 +12336,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="18.75">
-      <c r="A444" s="4">
+      <c r="A444" s="3">
         <v>1120</v>
       </c>
       <c r="B444" s="2" t="s">
@@ -12350,7 +12347,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="18.75">
-      <c r="A445" s="4">
+      <c r="A445" s="3">
         <v>285130</v>
       </c>
       <c r="B445" s="2" t="s">
@@ -12361,7 +12358,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="18.75">
-      <c r="A446" s="4">
+      <c r="A446" s="3">
         <v>18670</v>
       </c>
       <c r="B446" s="2" t="s">
@@ -12372,7 +12369,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="18.75">
-      <c r="A447" s="4">
+      <c r="A447" s="3">
         <v>6120</v>
       </c>
       <c r="B447" s="2" t="s">
@@ -12383,7 +12380,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="18.75">
-      <c r="A448" s="4">
+      <c r="A448" s="3">
         <v>400</v>
       </c>
       <c r="B448" s="2" t="s">
@@ -12394,7 +12391,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="18.75">
-      <c r="A449" s="4">
+      <c r="A449" s="3">
         <v>370</v>
       </c>
       <c r="B449" s="2" t="s">
@@ -12405,7 +12402,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="18.75">
-      <c r="A450" s="4">
+      <c r="A450" s="3">
         <v>68400</v>
       </c>
       <c r="B450" s="2" t="s">
@@ -12416,7 +12413,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="18.75">
-      <c r="A451" s="4">
+      <c r="A451" s="3">
         <v>37560</v>
       </c>
       <c r="B451" s="2" t="s">
@@ -12427,7 +12424,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="18.75">
-      <c r="A452" s="4">
+      <c r="A452" s="3">
         <v>260870</v>
       </c>
       <c r="B452" s="2" t="s">
@@ -12438,7 +12435,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="18.75">
-      <c r="A453" s="4">
+      <c r="A453" s="3">
         <v>452260</v>
       </c>
       <c r="B453" s="2" t="s">
@@ -12449,7 +12446,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="18.75">
-      <c r="A454" s="4">
+      <c r="A454" s="3">
         <v>1360</v>
       </c>
       <c r="B454" s="2" t="s">
@@ -12460,7 +12457,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="18.75">
-      <c r="A455" s="4">
+      <c r="A455" s="3">
         <v>68290</v>
       </c>
       <c r="B455" s="2" t="s">
@@ -12471,7 +12468,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="18.75">
-      <c r="A456" s="4">
+      <c r="A456" s="3">
         <v>6660</v>
       </c>
       <c r="B456" s="2" t="s">
@@ -12482,7 +12479,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="18.75">
-      <c r="A457" s="4">
+      <c r="A457" s="3">
         <v>448740</v>
       </c>
       <c r="B457" s="2" t="s">
@@ -12493,7 +12490,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="18.75">
-      <c r="A458" s="4">
+      <c r="A458" s="3">
         <v>377630</v>
       </c>
       <c r="B458" s="2" t="s">
@@ -12504,7 +12501,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="18.75">
-      <c r="A459" s="4">
+      <c r="A459" s="3">
         <v>380320</v>
       </c>
       <c r="B459" s="2" t="s">
@@ -12548,7 +12545,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="18.75">
-      <c r="A463" s="4">
+      <c r="A463" s="3">
         <v>7203</v>
       </c>
       <c r="B463" s="2" t="s">
@@ -12559,7 +12556,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="18.75">
-      <c r="A464" s="4">
+      <c r="A464" s="3">
         <v>6861</v>
       </c>
       <c r="B464" s="2" t="s">
@@ -12570,7 +12567,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="18.75">
-      <c r="A465" s="4">
+      <c r="A465" s="3">
         <v>6758</v>
       </c>
       <c r="B465" s="2" t="s">
@@ -12581,7 +12578,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="18.75">
-      <c r="A466" s="4">
+      <c r="A466" s="3">
         <v>9432</v>
       </c>
       <c r="B466" s="2" t="s">
@@ -12592,7 +12589,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="18.75">
-      <c r="A467" s="4">
+      <c r="A467" s="3">
         <v>8306</v>
       </c>
       <c r="B467" s="2" t="s">
@@ -12603,7 +12600,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="18.75">
-      <c r="A468" s="4">
+      <c r="A468" s="3">
         <v>9983</v>
       </c>
       <c r="B468" s="2" t="s">
@@ -12614,7 +12611,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="18.75">
-      <c r="A469" s="4">
+      <c r="A469" s="3">
         <v>8058</v>
       </c>
       <c r="B469" s="2" t="s">
@@ -12625,7 +12622,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="18.75">
-      <c r="A470" s="4">
+      <c r="A470" s="3">
         <v>9433</v>
       </c>
       <c r="B470" s="2" t="s">
@@ -12636,7 +12633,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="18.75">
-      <c r="A471" s="4">
+      <c r="A471" s="3">
         <v>8035</v>
       </c>
       <c r="B471" s="2" t="s">
@@ -12647,7 +12644,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="18.75">
-      <c r="A472" s="4">
+      <c r="A472" s="3">
         <v>4063</v>
       </c>
       <c r="B472" s="2" t="s">
@@ -12658,7 +12655,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="18.75">
-      <c r="A473" s="4">
+      <c r="A473" s="3">
         <v>4661</v>
       </c>
       <c r="B473" s="2" t="s">
@@ -12669,7 +12666,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="18.75">
-      <c r="A474" s="4">
+      <c r="A474" s="3">
         <v>9984</v>
       </c>
       <c r="B474" s="2" t="s">
@@ -12680,7 +12677,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="18.75">
-      <c r="A475" s="4">
+      <c r="A475" s="3">
         <v>6367</v>
       </c>
       <c r="B475" s="2" t="s">
@@ -12691,7 +12688,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="18.75">
-      <c r="A476" s="4">
+      <c r="A476" s="3">
         <v>8316</v>
       </c>
       <c r="B476" s="2" t="s">
@@ -12702,7 +12699,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="18.75">
-      <c r="A477" s="4">
+      <c r="A477" s="3">
         <v>6501</v>
       </c>
       <c r="B477" s="2" t="s">
@@ -12713,7 +12710,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="18.75">
-      <c r="A478" s="4">
+      <c r="A478" s="3">
         <v>8001</v>
       </c>
       <c r="B478" s="2" t="s">
@@ -12724,7 +12721,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="18.75">
-      <c r="A479" s="4">
+      <c r="A479" s="3">
         <v>8031</v>
       </c>
       <c r="B479" s="2" t="s">
@@ -12735,7 +12732,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="18.75">
-      <c r="A480" s="4">
+      <c r="A480" s="3">
         <v>7974</v>
       </c>
       <c r="B480" s="2" t="s">
@@ -12746,7 +12743,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="18.75">
-      <c r="A481" s="4">
+      <c r="A481" s="3">
         <v>4568</v>
       </c>
       <c r="B481" s="2" t="s">
@@ -12757,7 +12754,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="18.75">
-      <c r="A482" s="4">
+      <c r="A482" s="3">
         <v>9434</v>
       </c>
       <c r="B482" s="2" t="s">
@@ -12768,7 +12765,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="18.75">
-      <c r="A483" s="4">
+      <c r="A483" s="3">
         <v>7267</v>
       </c>
       <c r="B483" s="2" t="s">
@@ -12779,7 +12776,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="18.75">
-      <c r="A484" s="4">
+      <c r="A484" s="3">
         <v>6098</v>
       </c>
       <c r="B484" s="2" t="s">
@@ -12790,7 +12787,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="18.75">
-      <c r="A485" s="4">
+      <c r="A485" s="3">
         <v>6902</v>
       </c>
       <c r="B485" s="2" t="s">
@@ -12801,7 +12798,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="18.75">
-      <c r="A486" s="4">
+      <c r="A486" s="3">
         <v>4502</v>
       </c>
       <c r="B486" s="2" t="s">
@@ -12812,7 +12809,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="18.75">
-      <c r="A487" s="4">
+      <c r="A487" s="3">
         <v>8766</v>
       </c>
       <c r="B487" s="2" t="s">
@@ -12823,7 +12820,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="18.75">
-      <c r="A488" s="4">
+      <c r="A488" s="3">
         <v>4519</v>
       </c>
       <c r="B488" s="2" t="s">
@@ -12834,7 +12831,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="18.75">
-      <c r="A489" s="4">
+      <c r="A489" s="3">
         <v>8411</v>
       </c>
       <c r="B489" s="2" t="s">
@@ -12845,7 +12842,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="18.75">
-      <c r="A490" s="4">
+      <c r="A490" s="3">
         <v>7741</v>
       </c>
       <c r="B490" s="2" t="s">
@@ -12856,7 +12853,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="18.75">
-      <c r="A491" s="4">
+      <c r="A491" s="3">
         <v>3382</v>
       </c>
       <c r="B491" s="2" t="s">
@@ -12867,7 +12864,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="18.75">
-      <c r="A492" s="4">
+      <c r="A492" s="3">
         <v>2914</v>
       </c>
       <c r="B492" s="2" t="s">
@@ -12878,7 +12875,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="18.75">
-      <c r="A493" s="4">
+      <c r="A493" s="3">
         <v>6981</v>
       </c>
       <c r="B493" s="2" t="s">
@@ -12889,7 +12886,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="18.75">
-      <c r="A494" s="4">
+      <c r="A494" s="3">
         <v>6273</v>
       </c>
       <c r="B494" s="2" t="s">
@@ -12900,7 +12897,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="18.75">
-      <c r="A495" s="4">
+      <c r="A495" s="3">
         <v>6954</v>
       </c>
       <c r="B495" s="2" t="s">
@@ -12911,7 +12908,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="18.75">
-      <c r="A496" s="4">
+      <c r="A496" s="3">
         <v>6723</v>
       </c>
       <c r="B496" s="2" t="s">
@@ -12922,7 +12919,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="18.75">
-      <c r="A497" s="4">
+      <c r="A497" s="3">
         <v>6594</v>
       </c>
       <c r="B497" s="2" t="s">
@@ -12933,7 +12930,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="18.75">
-      <c r="A498" s="4">
+      <c r="A498" s="3">
         <v>6503</v>
       </c>
       <c r="B498" s="2" t="s">
@@ -12944,7 +12941,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="18.75">
-      <c r="A499" s="4">
+      <c r="A499" s="3">
         <v>7182</v>
       </c>
       <c r="B499" s="2" t="s">
@@ -12955,7 +12952,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="18.75">
-      <c r="A500" s="4">
+      <c r="A500" s="3">
         <v>5108</v>
       </c>
       <c r="B500" s="2" t="s">
@@ -12966,7 +12963,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="18.75">
-      <c r="A501" s="4">
+      <c r="A501" s="3">
         <v>8002</v>
       </c>
       <c r="B501" s="2" t="s">
@@ -12977,7 +12974,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="18.75">
-      <c r="A502" s="4">
+      <c r="A502" s="3">
         <v>6752</v>
       </c>
       <c r="B502" s="2" t="s">
@@ -12988,7 +12985,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="18.75">
-      <c r="A503" s="4">
+      <c r="A503" s="3">
         <v>7751</v>
       </c>
       <c r="B503" s="2" t="s">
@@ -12999,7 +12996,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="18.75">
-      <c r="A504" s="4">
+      <c r="A504" s="3">
         <v>6857</v>
       </c>
       <c r="B504" s="2" t="s">
@@ -13010,7 +13007,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="18.75">
-      <c r="A505" s="4">
+      <c r="A505" s="3">
         <v>4503</v>
       </c>
       <c r="B505" s="2" t="s">
@@ -13021,7 +13018,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="18.75">
-      <c r="A506" s="4">
+      <c r="A506" s="3">
         <v>8053</v>
       </c>
       <c r="B506" s="2" t="s">
@@ -13032,7 +13029,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="18.75">
-      <c r="A507" s="4">
+      <c r="A507" s="3">
         <v>6178</v>
       </c>
       <c r="B507" s="2" t="s">
@@ -13043,7 +13040,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="18.75">
-      <c r="A508" s="4">
+      <c r="A508" s="3">
         <v>6301</v>
       </c>
       <c r="B508" s="2" t="s">
@@ -13054,7 +13051,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="18.75">
-      <c r="A509" s="4">
+      <c r="A509" s="3">
         <v>6702</v>
       </c>
       <c r="B509" s="2" t="s">
@@ -13065,7 +13062,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="18.75">
-      <c r="A510" s="4">
+      <c r="A510" s="3">
         <v>9022</v>
       </c>
       <c r="B510" s="2" t="s">
@@ -13076,7 +13073,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="18.75">
-      <c r="A511" s="4">
+      <c r="A511" s="3">
         <v>4543</v>
       </c>
       <c r="B511" s="2" t="s">
@@ -13087,7 +13084,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="18.75">
-      <c r="A512" s="4">
+      <c r="A512" s="3">
         <v>8113</v>
       </c>
       <c r="B512" s="2" t="s">
@@ -13098,7 +13095,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="18.75">
-      <c r="A513" s="4">
+      <c r="A513" s="3">
         <v>6201</v>
       </c>
       <c r="B513" s="2" t="s">
@@ -13109,7 +13106,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="18.75">
-      <c r="A514" s="4">
+      <c r="A514" s="3">
         <v>9020</v>
       </c>
       <c r="B514" s="2" t="s">
@@ -13120,7 +13117,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="18.75">
-      <c r="A515" s="4">
+      <c r="A515" s="3">
         <v>4689</v>
       </c>
       <c r="B515" s="2" t="s">
@@ -13131,7 +13128,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="18.75">
-      <c r="A516" s="4">
+      <c r="A516" s="3">
         <v>8591</v>
       </c>
       <c r="B516" s="2" t="s">
@@ -13142,7 +13139,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="18.75">
-      <c r="A517" s="4">
+      <c r="A517" s="3">
         <v>2802</v>
       </c>
       <c r="B517" s="2" t="s">
@@ -13153,7 +13150,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="18.75">
-      <c r="A518" s="4">
+      <c r="A518" s="3">
         <v>4578</v>
       </c>
       <c r="B518" s="2" t="s">
@@ -13164,7 +13161,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="18.75">
-      <c r="A519" s="4">
+      <c r="A519" s="3">
         <v>7733</v>
       </c>
       <c r="B519" s="2" t="s">
@@ -13175,7 +13172,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="18.75">
-      <c r="A520" s="4">
+      <c r="A520" s="3">
         <v>4612</v>
       </c>
       <c r="B520" s="2" t="s">
@@ -13186,7 +13183,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="18.75">
-      <c r="A521" s="4">
+      <c r="A521" s="3">
         <v>8750</v>
       </c>
       <c r="B521" s="2" t="s">
@@ -13197,7 +13194,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="18.75">
-      <c r="A522" s="4">
+      <c r="A522" s="3">
         <v>2502</v>
       </c>
       <c r="B522" s="2" t="s">
@@ -13208,7 +13205,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="18.75">
-      <c r="A523" s="4">
+      <c r="A523" s="3">
         <v>6971</v>
       </c>
       <c r="B523" s="2" t="s">
@@ -13219,7 +13216,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="18.75">
-      <c r="A524" s="4">
+      <c r="A524" s="3">
         <v>5401</v>
       </c>
       <c r="B524" s="2" t="s">
@@ -13230,7 +13227,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="18.75">
-      <c r="A525" s="4">
+      <c r="A525" s="3">
         <v>9613</v>
       </c>
       <c r="B525" s="2" t="s">
@@ -13241,7 +13238,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="18.75">
-      <c r="A526" s="4">
+      <c r="A526" s="3">
         <v>8801</v>
       </c>
       <c r="B526" s="2" t="s">
@@ -13252,7 +13249,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="18.75">
-      <c r="A527" s="4">
+      <c r="A527" s="3">
         <v>7269</v>
       </c>
       <c r="B527" s="2" t="s">
@@ -13263,7 +13260,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="18.75">
-      <c r="A528" s="4">
+      <c r="A528" s="3">
         <v>8725</v>
       </c>
       <c r="B528" s="2" t="s">
@@ -13274,7 +13271,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="18.75">
-      <c r="A529" s="4">
+      <c r="A529" s="3">
         <v>4911</v>
       </c>
       <c r="B529" s="2" t="s">
@@ -13285,7 +13282,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="18.75">
-      <c r="A530" s="4">
+      <c r="A530" s="3">
         <v>4452</v>
       </c>
       <c r="B530" s="2" t="s">
@@ -13296,7 +13293,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="18.75">
-      <c r="A531" s="4">
+      <c r="A531" s="3">
         <v>8015</v>
       </c>
       <c r="B531" s="2" t="s">
@@ -13307,7 +13304,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="18.75">
-      <c r="A532" s="4">
+      <c r="A532" s="3">
         <v>8267</v>
       </c>
       <c r="B532" s="2" t="s">
@@ -13318,7 +13315,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="18.75">
-      <c r="A533" s="4">
+      <c r="A533" s="3">
         <v>4901</v>
       </c>
       <c r="B533" s="2" t="s">
@@ -13329,7 +13326,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="18.75">
-      <c r="A534" s="4">
+      <c r="A534" s="3">
         <v>4523</v>
       </c>
       <c r="B534" s="2" t="s">
@@ -13340,7 +13337,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="18.75">
-      <c r="A535" s="4">
+      <c r="A535" s="3">
         <v>6146</v>
       </c>
       <c r="B535" s="2" t="s">
@@ -13351,7 +13348,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="18.75">
-      <c r="A536" s="4">
+      <c r="A536" s="3">
         <v>6326</v>
       </c>
       <c r="B536" s="2" t="s">
@@ -13362,7 +13359,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="18.75">
-      <c r="A537" s="4">
+      <c r="A537" s="3">
         <v>1925</v>
       </c>
       <c r="B537" s="2" t="s">
@@ -13373,7 +13370,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="18.75">
-      <c r="A538" s="4">
+      <c r="A538" s="3">
         <v>3659</v>
       </c>
       <c r="B538" s="2" t="s">
@@ -13384,7 +13381,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="18.75">
-      <c r="A539" s="4">
+      <c r="A539" s="3">
         <v>7201</v>
       </c>
       <c r="B539" s="2" t="s">
@@ -13395,7 +13392,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="18.75">
-      <c r="A540" s="4">
+      <c r="A540" s="3">
         <v>8802</v>
       </c>
       <c r="B540" s="2" t="s">
@@ -13406,7 +13403,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="18.75">
-      <c r="A541" s="4">
+      <c r="A541" s="3">
         <v>8630</v>
       </c>
       <c r="B541" s="2" t="s">
@@ -13417,7 +13414,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="18.75">
-      <c r="A542" s="4">
+      <c r="A542" s="3">
         <v>7309</v>
       </c>
       <c r="B542" s="2" t="s">
@@ -13428,7 +13425,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="18.75">
-      <c r="A543" s="4">
+      <c r="A543" s="3">
         <v>4307</v>
       </c>
       <c r="B543" s="2" t="s">
@@ -13439,7 +13436,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="18.75">
-      <c r="A544" s="4">
+      <c r="A544" s="3">
         <v>7011</v>
       </c>
       <c r="B544" s="2" t="s">
@@ -13450,7 +13447,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="18.75">
-      <c r="A545" s="4">
+      <c r="A545" s="3">
         <v>7832</v>
       </c>
       <c r="B545" s="2" t="s">
@@ -13461,7 +13458,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="18.75">
-      <c r="A546" s="4">
+      <c r="A546" s="3">
         <v>2413</v>
       </c>
       <c r="B546" s="2" t="s">
@@ -13472,7 +13469,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="18.75">
-      <c r="A547" s="4">
+      <c r="A547" s="3">
         <v>9735</v>
       </c>
       <c r="B547" s="2" t="s">
@@ -13483,7 +13480,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="18.75">
-      <c r="A548" s="4">
+      <c r="A548" s="3">
         <v>4684</v>
       </c>
       <c r="B548" s="2" t="s">
@@ -13494,7 +13491,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="18.75">
-      <c r="A549" s="4">
+      <c r="A549" s="3">
         <v>6762</v>
       </c>
       <c r="B549" s="2" t="s">
@@ -13505,7 +13502,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="18.75">
-      <c r="A550" s="4">
+      <c r="A550" s="3">
         <v>6502</v>
       </c>
       <c r="B550" s="2" t="s">
@@ -13516,7 +13513,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="18.75">
-      <c r="A551" s="4">
+      <c r="A551" s="3">
         <v>9843</v>
       </c>
       <c r="B551" s="2" t="s">
@@ -13527,7 +13524,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="18.75">
-      <c r="A552" s="4">
+      <c r="A552" s="3">
         <v>7270</v>
       </c>
       <c r="B552" s="2" t="s">
@@ -13538,7 +13535,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="18.75">
-      <c r="A553" s="4">
+      <c r="A553" s="3">
         <v>6869</v>
       </c>
       <c r="B553" s="2" t="s">
@@ -13549,7 +13546,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="18.75">
-      <c r="A554" s="4">
+      <c r="A554" s="3">
         <v>8309</v>
       </c>
       <c r="B554" s="2" t="s">
@@ -13560,7 +13557,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="18.75">
-      <c r="A555" s="4">
+      <c r="A555" s="3">
         <v>1928</v>
       </c>
       <c r="B555" s="2" t="s">
@@ -13571,7 +13568,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="18.75">
-      <c r="A556" s="4">
+      <c r="A556" s="3">
         <v>8421</v>
       </c>
       <c r="B556" s="2" t="s">
@@ -13582,7 +13579,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="18.75">
-      <c r="A557" s="4">
+      <c r="A557" s="3">
         <v>6701</v>
       </c>
       <c r="B557" s="2" t="s">
@@ -13593,7 +13590,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="18.75">
-      <c r="A558" s="4">
+      <c r="A558" s="3">
         <v>4507</v>
       </c>
       <c r="B558" s="2" t="s">
@@ -13604,7 +13601,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="18.75">
-      <c r="A559" s="4">
+      <c r="A559" s="3">
         <v>8308</v>
       </c>
       <c r="B559" s="2" t="s">
@@ -13615,7 +13612,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="18.75">
-      <c r="A560" s="4">
+      <c r="A560" s="3">
         <v>8830</v>
       </c>
       <c r="B560" s="2" t="s">
@@ -13626,7 +13623,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="18.75">
-      <c r="A561" s="4">
+      <c r="A561" s="3">
         <v>2503</v>
       </c>
       <c r="B561" s="2" t="s">
@@ -13637,7 +13634,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="18.75">
-      <c r="A562" s="4">
+      <c r="A562" s="3">
         <v>9101</v>
       </c>
       <c r="B562" s="2" t="s">
@@ -13648,7 +13645,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="18.75">
-      <c r="A563" s="4">
+      <c r="A563" s="3">
         <v>6645</v>
       </c>
       <c r="B563" s="2" t="s">
@@ -13659,7 +13656,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="18.75">
-      <c r="A564" s="4">
+      <c r="A564" s="3">
         <v>8604</v>
       </c>
       <c r="B564" s="2" t="s">
@@ -13670,7 +13667,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="18.75">
-      <c r="A565" s="4">
+      <c r="A565" s="3">
         <v>9202</v>
       </c>
       <c r="B565" s="2" t="s">
@@ -13681,7 +13678,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="18.75">
-      <c r="A566" s="4">
+      <c r="A566" s="3">
         <v>6506</v>
       </c>
       <c r="B566" s="2" t="s">
@@ -13692,7 +13689,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="18.75">
-      <c r="A567" s="4">
+      <c r="A567" s="3">
         <v>2587</v>
       </c>
       <c r="B567" s="2" t="s">
@@ -13703,7 +13700,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="18.75">
-      <c r="A568" s="4">
+      <c r="A568" s="3">
         <v>9503</v>
       </c>
       <c r="B568" s="2" t="s">
@@ -13714,7 +13711,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="18.75">
-      <c r="A569" s="4">
+      <c r="A569" s="3">
         <v>2801</v>
       </c>
       <c r="B569" s="2" t="s">
@@ -13725,7 +13722,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="18.75">
-      <c r="A570" s="4">
+      <c r="A570" s="3">
         <v>6988</v>
       </c>
       <c r="B570" s="2" t="s">
@@ -13736,7 +13733,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="18.75">
-      <c r="A571" s="4">
+      <c r="A571" s="3">
         <v>9021</v>
       </c>
       <c r="B571" s="2" t="s">
@@ -13747,7 +13744,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="18.75">
-      <c r="A572" s="4">
+      <c r="A572" s="3">
         <v>5020</v>
       </c>
       <c r="B572" s="2" t="s">
@@ -13758,7 +13755,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="18.75">
-      <c r="A573" s="4">
+      <c r="A573" s="3">
         <v>2267</v>
       </c>
       <c r="B573" s="2" t="s">
@@ -13769,7 +13766,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="18.75">
-      <c r="A574" s="4">
+      <c r="A574" s="3">
         <v>4151</v>
       </c>
       <c r="B574" s="2" t="s">
@@ -13780,7 +13777,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="18.75">
-      <c r="A575" s="4">
+      <c r="A575" s="3">
         <v>9143</v>
       </c>
       <c r="B575" s="2" t="s">
@@ -13791,7 +13788,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="18.75">
-      <c r="A576" s="4">
+      <c r="A576" s="3">
         <v>9531</v>
       </c>
       <c r="B576" s="2" t="s">
@@ -13802,7 +13799,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="18.75">
-      <c r="A577" s="4">
+      <c r="A577" s="3">
         <v>7202</v>
       </c>
       <c r="B577" s="2" t="s">
@@ -13813,7 +13810,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="18.75">
-      <c r="A578" s="4">
+      <c r="A578" s="3">
         <v>9201</v>
       </c>
       <c r="B578" s="2" t="s">
@@ -13824,7 +13821,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="18.75">
-      <c r="A579" s="4">
+      <c r="A579" s="3">
         <v>7272</v>
       </c>
       <c r="B579" s="2" t="s">
@@ -13835,7 +13832,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="18.75">
-      <c r="A580" s="4">
+      <c r="A580" s="3">
         <v>3407</v>
       </c>
       <c r="B580" s="2" t="s">
@@ -13846,7 +13843,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="18.75">
-      <c r="A581" s="4">
+      <c r="A581" s="3">
         <v>4716</v>
       </c>
       <c r="B581" s="2" t="s">
@@ -13857,7 +13854,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="18.75">
-      <c r="A582" s="4">
+      <c r="A582" s="3">
         <v>5802</v>
       </c>
       <c r="B582" s="2" t="s">
@@ -13868,7 +13865,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="18.75">
-      <c r="A583" s="4">
+      <c r="A583" s="3">
         <v>6963</v>
       </c>
       <c r="B583" s="2" t="s">
@@ -13879,7 +13876,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="18.75">
-      <c r="A584" s="4">
+      <c r="A584" s="3">
         <v>5713</v>
       </c>
       <c r="B584" s="2" t="s">
@@ -13890,7 +13887,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="18.75">
-      <c r="A585" s="4">
+      <c r="A585" s="3">
         <v>4091</v>
       </c>
       <c r="B585" s="2" t="s">
@@ -13901,7 +13898,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="18.75">
-      <c r="A586" s="4">
+      <c r="A586" s="3">
         <v>9104</v>
       </c>
       <c r="B586" s="2" t="s">
@@ -13912,7 +13909,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="18.75">
-      <c r="A587" s="4">
+      <c r="A587" s="3">
         <v>9502</v>
       </c>
       <c r="B587" s="2" t="s">
@@ -13923,7 +13920,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="18.75">
-      <c r="A588" s="4">
+      <c r="A588" s="3">
         <v>7701</v>
       </c>
       <c r="B588" s="2" t="s">
@@ -13934,7 +13931,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="18.75">
-      <c r="A589" s="4">
+      <c r="A589" s="3">
         <v>4528</v>
       </c>
       <c r="B589" s="2" t="s">
@@ -13945,7 +13942,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="18.75">
-      <c r="A590" s="4">
+      <c r="A590" s="3">
         <v>3402</v>
       </c>
       <c r="B590" s="2" t="s">
@@ -13956,7 +13953,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="18.75">
-      <c r="A591" s="4">
+      <c r="A591" s="3">
         <v>8697</v>
       </c>
       <c r="B591" s="2" t="s">
@@ -13967,7 +13964,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="18.75">
-      <c r="A592" s="4">
+      <c r="A592" s="3">
         <v>8795</v>
       </c>
       <c r="B592" s="2" t="s">
@@ -13978,7 +13975,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="18.75">
-      <c r="A593" s="4">
+      <c r="A593" s="3">
         <v>7259</v>
       </c>
       <c r="B593" s="2" t="s">
@@ -13989,7 +13986,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="18.75">
-      <c r="A594" s="4">
+      <c r="A594" s="3">
         <v>2897</v>
       </c>
       <c r="B594" s="2" t="s">
@@ -14000,7 +13997,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="18.75">
-      <c r="A595" s="4">
+      <c r="A595" s="3">
         <v>4188</v>
       </c>
       <c r="B595" s="2" t="s">
@@ -14011,7 +14008,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="18.75">
-      <c r="A596" s="4">
+      <c r="A596" s="3">
         <v>9697</v>
       </c>
       <c r="B596" s="2" t="s">
@@ -14022,7 +14019,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="18.75">
-      <c r="A597" s="4">
+      <c r="A597" s="3">
         <v>5411</v>
       </c>
       <c r="B597" s="2" t="s">
@@ -14033,7 +14030,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="18.75">
-      <c r="A598" s="4">
+      <c r="A598" s="3">
         <v>4755</v>
       </c>
       <c r="B598" s="2" t="s">
@@ -14044,7 +14041,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="18.75">
-      <c r="A599" s="4">
+      <c r="A599" s="3">
         <v>4324</v>
       </c>
       <c r="B599" s="2" t="s">
@@ -14055,7 +14052,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="18.75">
-      <c r="A600" s="4">
+      <c r="A600" s="3">
         <v>9042</v>
       </c>
       <c r="B600" s="2" t="s">
@@ -14066,7 +14063,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="18.75">
-      <c r="A601" s="4">
+      <c r="A601" s="3">
         <v>6383</v>
       </c>
       <c r="B601" s="2" t="s">
@@ -14077,7 +14074,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="18.75">
-      <c r="A602" s="4">
+      <c r="A602" s="3">
         <v>5201</v>
       </c>
       <c r="B602" s="2" t="s">
@@ -14088,7 +14085,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="18.75">
-      <c r="A603" s="4">
+      <c r="A603" s="3">
         <v>3088</v>
       </c>
       <c r="B603" s="2" t="s">
@@ -14099,7 +14096,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="18.75">
-      <c r="A604" s="4">
+      <c r="A604" s="3">
         <v>4768</v>
       </c>
       <c r="B604" s="2" t="s">
@@ -14110,7 +14107,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="18.75">
-      <c r="A605" s="4">
+      <c r="A605" s="3">
         <v>6965</v>
       </c>
       <c r="B605" s="2" t="s">
@@ -14121,7 +14118,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="18.75">
-      <c r="A606" s="4">
+      <c r="A606" s="3">
         <v>6586</v>
       </c>
       <c r="B606" s="2" t="s">
@@ -14132,7 +14129,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="18.75">
-      <c r="A607" s="4">
+      <c r="A607" s="3">
         <v>1812</v>
       </c>
       <c r="B607" s="2" t="s">
@@ -14143,7 +14140,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="608" customHeight="1" ht="18.75">
-      <c r="A608" s="4">
+      <c r="A608" s="3">
         <v>9766</v>
       </c>
       <c r="B608" s="2" t="s">
@@ -14154,7 +14151,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="18.75">
-      <c r="A609" s="4">
+      <c r="A609" s="3">
         <v>8601</v>
       </c>
       <c r="B609" s="2" t="s">
@@ -14165,7 +14162,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="18.75">
-      <c r="A610" s="4">
+      <c r="A610" s="3">
         <v>9064</v>
       </c>
       <c r="B610" s="2" t="s">
@@ -14176,7 +14173,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="18.75">
-      <c r="A611" s="4">
+      <c r="A611" s="3">
         <v>4704</v>
       </c>
       <c r="B611" s="2" t="s">
@@ -14187,7 +14184,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="18.75">
-      <c r="A612" s="4">
+      <c r="A612" s="3">
         <v>1801</v>
       </c>
       <c r="B612" s="2" t="s">
@@ -14198,7 +14195,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="18.75">
-      <c r="A613" s="4">
+      <c r="A613" s="3">
         <v>4021</v>
       </c>
       <c r="B613" s="2" t="s">
@@ -14209,7 +14206,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="18.75">
-      <c r="A614" s="4">
+      <c r="A614" s="3">
         <v>7181</v>
       </c>
       <c r="B614" s="2" t="s">
@@ -14220,7 +14217,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="615" customHeight="1" ht="18.75">
-      <c r="A615" s="4">
+      <c r="A615" s="3">
         <v>9107</v>
       </c>
       <c r="B615" s="2" t="s">
@@ -14231,7 +14228,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="18.75">
-      <c r="A616" s="4">
+      <c r="A616" s="3">
         <v>7261</v>
       </c>
       <c r="B616" s="2" t="s">
@@ -14242,7 +14239,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="617" customHeight="1" ht="18.75">
-      <c r="A617" s="4">
+      <c r="A617" s="3">
         <v>7276</v>
       </c>
       <c r="B617" s="2" t="s">
@@ -14253,7 +14250,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="618" customHeight="1" ht="18.75">
-      <c r="A618" s="4">
+      <c r="A618" s="3">
         <v>3635</v>
       </c>
       <c r="B618" s="2" t="s">
@@ -14264,7 +14261,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="18.75">
-      <c r="A619" s="4">
+      <c r="A619" s="3">
         <v>4183</v>
       </c>
       <c r="B619" s="2" t="s">
@@ -14275,7 +14272,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="18.75">
-      <c r="A620" s="4">
+      <c r="A620" s="3">
         <v>7936</v>
       </c>
       <c r="B620" s="2" t="s">
@@ -14286,7 +14283,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="18.75">
-      <c r="A621" s="4">
+      <c r="A621" s="3">
         <v>7211</v>
       </c>
       <c r="B621" s="2" t="s">
@@ -14297,7 +14294,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="622" customHeight="1" ht="18.75">
-      <c r="A622" s="4">
+      <c r="A622" s="3">
         <v>6465</v>
       </c>
       <c r="B622" s="2" t="s">
@@ -14308,7 +14305,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="18.75">
-      <c r="A623" s="4">
+      <c r="A623" s="3">
         <v>7752</v>
       </c>
       <c r="B623" s="2" t="s">
@@ -14319,7 +14316,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="18.75">
-      <c r="A624" s="4">
+      <c r="A624" s="3">
         <v>6724</v>
       </c>
       <c r="B624" s="2" t="s">
@@ -14330,7 +14327,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="625" customHeight="1" ht="18.75">
-      <c r="A625" s="4">
+      <c r="A625" s="3">
         <v>3436</v>
       </c>
       <c r="B625" s="2" t="s">
@@ -14341,7 +14338,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="626" customHeight="1" ht="18.75">
-      <c r="A626" s="4">
+      <c r="A626" s="3">
         <v>6841</v>
       </c>
       <c r="B626" s="2" t="s">
@@ -14352,7 +14349,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="627" customHeight="1" ht="18.75">
-      <c r="A627" s="4">
+      <c r="A627" s="3">
         <v>4005</v>
       </c>
       <c r="B627" s="2" t="s">
@@ -14363,7 +14360,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="628" customHeight="1" ht="18.75">
-      <c r="A628" s="4">
+      <c r="A628" s="3">
         <v>7186</v>
       </c>
       <c r="B628" s="2" t="s">
@@ -14374,7 +14371,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="629" customHeight="1" ht="18.75">
-      <c r="A629" s="4">
+      <c r="A629" s="3">
         <v>8331</v>
       </c>
       <c r="B629" s="2" t="s">
@@ -14385,7 +14382,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="630" customHeight="1" ht="18.75">
-      <c r="A630" s="4">
+      <c r="A630" s="3">
         <v>2670</v>
       </c>
       <c r="B630" s="2" t="s">
@@ -14396,7 +14393,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="631" customHeight="1" ht="18.75">
-      <c r="A631" s="4">
+      <c r="A631" s="3">
         <v>6361</v>
       </c>
       <c r="B631" s="2" t="s">
@@ -14407,7 +14404,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="632" customHeight="1" ht="18.75">
-      <c r="A632" s="4">
+      <c r="A632" s="3">
         <v>1803</v>
       </c>
       <c r="B632" s="2" t="s">
@@ -14418,7 +14415,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="633" customHeight="1" ht="18.75">
-      <c r="A633" s="4">
+      <c r="A633" s="3">
         <v>6806</v>
       </c>
       <c r="B633" s="2" t="s">
@@ -14429,7 +14426,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="634" customHeight="1" ht="18.75">
-      <c r="A634" s="4">
+      <c r="A634" s="3">
         <v>6845</v>
       </c>
       <c r="B634" s="2" t="s">
@@ -14440,7 +14437,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="635" customHeight="1" ht="18.75">
-      <c r="A635" s="4">
+      <c r="A635" s="3">
         <v>8354</v>
       </c>
       <c r="B635" s="2" t="s">
@@ -14451,7 +14448,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="636" customHeight="1" ht="18.75">
-      <c r="A636" s="4">
+      <c r="A636" s="3">
         <v>8369</v>
       </c>
       <c r="B636" s="2" t="s">
@@ -14462,7 +14459,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="637" customHeight="1" ht="18.75">
-      <c r="A637" s="4">
+      <c r="A637" s="3">
         <v>4042</v>
       </c>
       <c r="B637" s="2" t="s">
@@ -14473,7 +14470,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="638" customHeight="1" ht="18.75">
-      <c r="A638" s="4">
+      <c r="A638" s="3">
         <v>6448</v>
       </c>
       <c r="B638" s="2" t="s">
@@ -14484,7 +14481,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="639" customHeight="1" ht="18.75">
-      <c r="A639" s="4">
+      <c r="A639" s="3">
         <v>3861</v>
       </c>
       <c r="B639" s="2" t="s">
@@ -14495,7 +14492,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="640" customHeight="1" ht="18.75">
-      <c r="A640" s="4">
+      <c r="A640" s="3">
         <v>6976</v>
       </c>
       <c r="B640" s="2" t="s">
@@ -14506,7 +14503,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="641" customHeight="1" ht="18.75">
-      <c r="A641" s="4">
+      <c r="A641" s="3">
         <v>6753</v>
       </c>
       <c r="B641" s="2" t="s">
@@ -14517,7 +14514,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="642" customHeight="1" ht="18.75">
-      <c r="A642" s="4">
+      <c r="A642" s="3">
         <v>8227</v>
       </c>
       <c r="B642" s="2" t="s">
@@ -14528,7 +14525,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="643" customHeight="1" ht="18.75">
-      <c r="A643" s="4">
+      <c r="A643" s="3">
         <v>4403</v>
       </c>
       <c r="B643" s="2" t="s">
@@ -14539,7 +14536,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="644" customHeight="1" ht="18.75">
-      <c r="A644" s="4">
+      <c r="A644" s="3">
         <v>5101</v>
       </c>
       <c r="B644" s="2" t="s">
@@ -14550,7 +14547,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="645" customHeight="1" ht="18.75">
-      <c r="A645" s="4">
+      <c r="A645" s="3">
         <v>6113</v>
       </c>
       <c r="B645" s="2" t="s">
@@ -14561,7 +14558,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="646" customHeight="1" ht="18.75">
-      <c r="A646" s="4">
+      <c r="A646" s="3">
         <v>7453</v>
       </c>
       <c r="B646" s="2" t="s">
@@ -14572,7 +14569,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="647" customHeight="1" ht="18.75">
-      <c r="A647" s="4">
+      <c r="A647" s="3">
         <v>3116</v>
       </c>
       <c r="B647" s="2" t="s">
@@ -14583,7 +14580,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="648" customHeight="1" ht="18.75">
-      <c r="A648" s="4">
+      <c r="A648" s="3">
         <v>1963</v>
       </c>
       <c r="B648" s="2" t="s">
@@ -14594,7 +14591,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="649" customHeight="1" ht="18.75">
-      <c r="A649" s="4">
+      <c r="A649" s="3">
         <v>6471</v>
       </c>
       <c r="B649" s="2" t="s">
@@ -14605,7 +14602,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="650" customHeight="1" ht="18.75">
-      <c r="A650" s="4">
+      <c r="A650" s="3">
         <v>3405</v>
       </c>
       <c r="B650" s="2" t="s">
@@ -14616,7 +14613,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="651" customHeight="1" ht="18.75">
-      <c r="A651" s="4">
+      <c r="A651" s="3">
         <v>6923</v>
       </c>
       <c r="B651" s="2" t="s">
@@ -14627,7 +14624,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="652" customHeight="1" ht="18.75">
-      <c r="A652" s="4">
+      <c r="A652" s="3">
         <v>6473</v>
       </c>
       <c r="B652" s="2" t="s">
@@ -14638,7 +14635,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="653" customHeight="1" ht="18.75">
-      <c r="A653" s="4">
+      <c r="A653" s="3">
         <v>9506</v>
       </c>
       <c r="B653" s="2" t="s">
@@ -14649,7 +14646,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="654" customHeight="1" ht="18.75">
-      <c r="A654" s="4">
+      <c r="A654" s="3">
         <v>4182</v>
       </c>
       <c r="B654" s="2" t="s">
@@ -14660,7 +14657,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="655" customHeight="1" ht="18.75">
-      <c r="A655" s="4">
+      <c r="A655" s="3">
         <v>8088</v>
       </c>
       <c r="B655" s="2" t="s">
@@ -14671,7 +14668,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="656" customHeight="1" ht="18.75">
-      <c r="A656" s="4">
+      <c r="A656" s="3">
         <v>2593</v>
       </c>
       <c r="B656" s="2" t="s">
@@ -14682,7 +14679,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="657" customHeight="1" ht="18.75">
-      <c r="A657" s="4">
+      <c r="A657" s="3">
         <v>6302</v>
       </c>
       <c r="B657" s="2" t="s">
@@ -14693,7 +14690,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="658" customHeight="1" ht="18.75">
-      <c r="A658" s="4">
+      <c r="A658" s="3">
         <v>5110</v>
       </c>
       <c r="B658" s="2" t="s">
@@ -14704,7 +14701,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="659" customHeight="1" ht="18.75">
-      <c r="A659" s="4">
+      <c r="A659" s="3">
         <v>9831</v>
       </c>
       <c r="B659" s="2" t="s">
@@ -14715,7 +14712,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="660" customHeight="1" ht="18.75">
-      <c r="A660" s="4">
+      <c r="A660" s="3">
         <v>7167</v>
       </c>
       <c r="B660" s="2" t="s">
@@ -14726,7 +14723,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="661" customHeight="1" ht="18.75">
-      <c r="A661" s="4">
+      <c r="A661" s="3">
         <v>7282</v>
       </c>
       <c r="B661" s="2" t="s">
@@ -14737,7 +14734,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="662" customHeight="1" ht="18.75">
-      <c r="A662" s="4">
+      <c r="A662" s="3">
         <v>7205</v>
       </c>
       <c r="B662" s="2" t="s">
@@ -14748,7 +14745,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="663" customHeight="1" ht="18.75">
-      <c r="A663" s="4">
+      <c r="A663" s="3">
         <v>7164</v>
       </c>
       <c r="B663" s="2" t="s">
@@ -14759,7 +14756,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="664" customHeight="1" ht="18.75">
-      <c r="A664" s="4">
+      <c r="A664" s="3">
         <v>8114</v>
       </c>
       <c r="B664" s="2" t="s">
@@ -14770,7 +14767,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="665" customHeight="1" ht="18.75">
-      <c r="A665" s="4">
+      <c r="A665" s="3">
         <v>5105</v>
       </c>
       <c r="B665" s="2" t="s">
@@ -14781,7 +14778,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="666" customHeight="1" ht="18.75">
-      <c r="A666" s="4">
+      <c r="A666" s="3">
         <v>6952</v>
       </c>
       <c r="B666" s="2" t="s">
@@ -14792,7 +14789,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="667" customHeight="1" ht="18.75">
-      <c r="A667" s="4">
+      <c r="A667" s="3">
         <v>2579</v>
       </c>
       <c r="B667" s="2" t="s">
@@ -14803,7 +14800,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="668" customHeight="1" ht="18.75">
-      <c r="A668" s="4">
+      <c r="A668" s="3">
         <v>9301</v>
       </c>
       <c r="B668" s="2" t="s">
@@ -14814,7 +14811,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="669" customHeight="1" ht="18.75">
-      <c r="A669" s="4">
+      <c r="A669" s="3">
         <v>4902</v>
       </c>
       <c r="B669" s="2" t="s">
@@ -14825,7 +14822,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="670" customHeight="1" ht="18.75">
-      <c r="A670" s="4">
+      <c r="A670" s="3">
         <v>5214</v>
       </c>
       <c r="B670" s="2" t="s">
@@ -14836,7 +14833,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="671" customHeight="1" ht="18.75">
-      <c r="A671" s="4">
+      <c r="A671" s="3">
         <v>5991</v>
       </c>
       <c r="B671" s="2" t="s">
@@ -14847,7 +14844,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="672" customHeight="1" ht="18.75">
-      <c r="A672" s="4">
+      <c r="A672" s="3">
         <v>2531</v>
       </c>
       <c r="B672" s="2" t="s">
@@ -14858,7 +14855,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="673" customHeight="1" ht="18.75">
-      <c r="A673" s="4">
+      <c r="A673" s="3">
         <v>7762</v>
       </c>
       <c r="B673" s="2" t="s">
@@ -14869,7 +14866,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="674" customHeight="1" ht="18.75">
-      <c r="A674" s="4">
+      <c r="A674" s="3">
         <v>6588</v>
       </c>
       <c r="B674" s="2" t="s">
@@ -14880,7 +14877,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="675" customHeight="1" ht="18.75">
-      <c r="A675" s="4">
+      <c r="A675" s="3">
         <v>4114</v>
       </c>
       <c r="B675" s="2" t="s">
@@ -14891,7 +14888,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="676" customHeight="1" ht="18.75">
-      <c r="A676" s="4">
+      <c r="A676" s="3">
         <v>7732</v>
       </c>
       <c r="B676" s="2" t="s">
@@ -14902,7 +14899,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="677" customHeight="1" ht="18.75">
-      <c r="A677" s="4">
+      <c r="A677" s="3">
         <v>4272</v>
       </c>
       <c r="B677" s="2" t="s">
@@ -14913,7 +14910,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="678" customHeight="1" ht="18.75">
-      <c r="A678" s="4">
+      <c r="A678" s="3">
         <v>6995</v>
       </c>
       <c r="B678" s="2" t="s">
@@ -14924,7 +14921,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="679" customHeight="1" ht="18.75">
-      <c r="A679" s="4">
+      <c r="A679" s="3">
         <v>3591</v>
       </c>
       <c r="B679" s="2" t="s">
@@ -14935,7 +14932,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="680" customHeight="1" ht="18.75">
-      <c r="A680" s="4">
+      <c r="A680" s="3">
         <v>4041</v>
       </c>
       <c r="B680" s="2" t="s">
@@ -14946,7 +14943,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="681" customHeight="1" ht="18.75">
-      <c r="A681" s="4">
+      <c r="A681" s="3">
         <v>2685</v>
       </c>
       <c r="B681" s="2" t="s">
@@ -14957,7 +14954,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="682" customHeight="1" ht="18.75">
-      <c r="A682" s="4">
+      <c r="A682" s="3">
         <v>5192</v>
       </c>
       <c r="B682" s="2" t="s">
@@ -14968,7 +14965,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="683" customHeight="1" ht="18.75">
-      <c r="A683" s="4">
+      <c r="A683" s="3">
         <v>9509</v>
       </c>
       <c r="B683" s="2" t="s">
@@ -14979,7 +14976,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="684" customHeight="1" ht="18.75">
-      <c r="A684" s="4">
+      <c r="A684" s="3">
         <v>7545</v>
       </c>
       <c r="B684" s="2" t="s">
@@ -14990,7 +14987,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="685" customHeight="1" ht="18.75">
-      <c r="A685" s="4">
+      <c r="A685" s="3">
         <v>8022</v>
       </c>
       <c r="B685" s="2" t="s">
@@ -15001,7 +14998,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="686" customHeight="1" ht="18.75">
-      <c r="A686" s="4">
+      <c r="A686" s="3">
         <v>9204</v>
       </c>
       <c r="B686" s="2" t="s">
@@ -15012,7 +15009,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="687" customHeight="1" ht="18.75">
-      <c r="A687" s="4">
+      <c r="A687" s="3">
         <v>7287</v>
       </c>
       <c r="B687" s="2" t="s">
@@ -15023,7 +15020,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="688" customHeight="1" ht="18.75">
-      <c r="A688" s="4">
+      <c r="A688" s="3">
         <v>9206</v>
       </c>
       <c r="B688" s="2" t="s">
